--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -225,16 +228,23 @@
       <t>(超过50%，则考虑卖出)</t>
     </r>
   </si>
+  <si>
+    <t>6.89%</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -307,7 +317,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -322,7 +332,84 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -337,88 +424,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,12 +478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +520,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,133 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,12 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,60 +744,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -810,6 +766,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -818,144 +798,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,10 +988,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,82 +1024,94 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1154,6 +1176,1815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+      <sheetName val="资金曲线变化表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>JG_0000001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>JH_00015</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>楚天龙</v>
+          </cell>
+          <cell r="E4">
+            <v>44523</v>
+          </cell>
+          <cell r="F4">
+            <v>26.2</v>
+          </cell>
+          <cell r="G4">
+            <v>200</v>
+          </cell>
+          <cell r="H4">
+            <v>5</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>5245</v>
+          </cell>
+          <cell r="K4">
+            <v>26.5</v>
+          </cell>
+          <cell r="L4">
+            <v>25.21</v>
+          </cell>
+          <cell r="M4">
+            <v>28.15</v>
+          </cell>
+          <cell r="N4">
+            <v>21.87</v>
+          </cell>
+          <cell r="O4">
+            <v>6.28</v>
+          </cell>
+          <cell r="P4">
+            <v>150.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>44526</v>
+          </cell>
+          <cell r="U4">
+            <v>24.89</v>
+          </cell>
+          <cell r="V4">
+            <v>100</v>
+          </cell>
+          <cell r="W4">
+            <v>5</v>
+          </cell>
+          <cell r="X4">
+            <v>2.489</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="AA4">
+            <v>27.43</v>
+          </cell>
+          <cell r="AB4">
+            <v>24.74</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0557620817843874</v>
+          </cell>
+          <cell r="AD4">
+            <v>-1.25900000000001</v>
+          </cell>
+          <cell r="AE4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AF4">
+            <v>26.295</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>JG_0000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>44531</v>
+          </cell>
+          <cell r="U5">
+            <v>27.7</v>
+          </cell>
+          <cell r="V5">
+            <v>100</v>
+          </cell>
+          <cell r="W5">
+            <v>5</v>
+          </cell>
+          <cell r="X5">
+            <v>2.77</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="AA5">
+            <v>28.7</v>
+          </cell>
+          <cell r="AB5">
+            <v>27.5</v>
+          </cell>
+          <cell r="AC5">
+            <v>0.166666666666666</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>JG_0000003</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>JH_00001</v>
+          </cell>
+          <cell r="C6">
+            <v>600085</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E6">
+            <v>44523</v>
+          </cell>
+          <cell r="F6">
+            <v>33.73</v>
+          </cell>
+          <cell r="G6">
+            <v>100</v>
+          </cell>
+          <cell r="H6">
+            <v>5</v>
+          </cell>
+          <cell r="I6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="J6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="K6">
+            <v>35.36</v>
+          </cell>
+          <cell r="L6">
+            <v>33.1</v>
+          </cell>
+          <cell r="M6">
+            <v>35.48</v>
+          </cell>
+          <cell r="N6">
+            <v>31.36</v>
+          </cell>
+          <cell r="O6">
+            <v>4.12</v>
+          </cell>
+          <cell r="P6">
+            <v>37.41</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="R6">
+            <v>34.7</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>JG_0000004</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>JH_00002</v>
+          </cell>
+          <cell r="C7">
+            <v>603867</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E7">
+            <v>44522</v>
+          </cell>
+          <cell r="F7">
+            <v>32.7</v>
+          </cell>
+          <cell r="G7">
+            <v>100</v>
+          </cell>
+          <cell r="H7">
+            <v>5</v>
+          </cell>
+          <cell r="I7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="J7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>33.9</v>
+          </cell>
+          <cell r="L7">
+            <v>32.49</v>
+          </cell>
+          <cell r="M7">
+            <v>36.21</v>
+          </cell>
+          <cell r="N7">
+            <v>27.35</v>
+          </cell>
+          <cell r="O7">
+            <v>8.86</v>
+          </cell>
+          <cell r="P7">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>44539</v>
+          </cell>
+          <cell r="U7">
+            <v>37.75</v>
+          </cell>
+          <cell r="V7">
+            <v>100</v>
+          </cell>
+          <cell r="W7">
+            <v>5</v>
+          </cell>
+          <cell r="X7">
+            <v>3.775</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.0755</v>
+          </cell>
+          <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
+            <v>38.83</v>
+          </cell>
+          <cell r="AB7">
+            <v>36.3</v>
+          </cell>
+          <cell r="AC7">
+            <v>0.57312252964427</v>
+          </cell>
+          <cell r="AD7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AE7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AF7">
+            <v>37.75</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>JG_0000005</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>JH_00012</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E8">
+            <v>44526</v>
+          </cell>
+          <cell r="F8">
+            <v>72.07</v>
+          </cell>
+          <cell r="G8">
+            <v>100</v>
+          </cell>
+          <cell r="H8">
+            <v>5</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>7212</v>
+          </cell>
+          <cell r="K8">
+            <v>74.5</v>
+          </cell>
+          <cell r="L8">
+            <v>70.4</v>
+          </cell>
+          <cell r="M8">
+            <v>75.02</v>
+          </cell>
+          <cell r="N8">
+            <v>62.33</v>
+          </cell>
+          <cell r="O8">
+            <v>12.69</v>
+          </cell>
+          <cell r="P8">
+            <v>6.49</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="R8">
+            <v>67.53</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
+          <cell r="AD8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AE8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AF8">
+            <v>72.45</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>JG_0000006</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>JH_00014</v>
+          </cell>
+          <cell r="C9">
+            <v>605016</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>百龙创园</v>
+          </cell>
+          <cell r="E9">
+            <v>44524</v>
+          </cell>
+          <cell r="F9">
+            <v>30.54</v>
+          </cell>
+          <cell r="G9">
+            <v>100</v>
+          </cell>
+          <cell r="H9">
+            <v>5</v>
+          </cell>
+          <cell r="I9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="J9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>30.72</v>
+          </cell>
+          <cell r="L9">
+            <v>29.33</v>
+          </cell>
+          <cell r="M9">
+            <v>32.43</v>
+          </cell>
+          <cell r="N9">
+            <v>26.16</v>
+          </cell>
+          <cell r="O9">
+            <v>6.27</v>
+          </cell>
+          <cell r="P9">
+            <v>38.46</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.129496402877698</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>44525</v>
+          </cell>
+          <cell r="U9">
+            <v>30.15</v>
+          </cell>
+          <cell r="V9">
+            <v>100</v>
+          </cell>
+          <cell r="W9">
+            <v>5</v>
+          </cell>
+          <cell r="X9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.0603</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AE9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>JG_0000007</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>JH_00013</v>
+          </cell>
+          <cell r="C10">
+            <v>603010</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>万盛股份</v>
+          </cell>
+          <cell r="E10">
+            <v>44530</v>
+          </cell>
+          <cell r="F10">
+            <v>29.81</v>
+          </cell>
+          <cell r="G10">
+            <v>100</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="J10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>30.32</v>
+          </cell>
+          <cell r="L10">
+            <v>28.81</v>
+          </cell>
+          <cell r="M10">
+            <v>31.18</v>
+          </cell>
+          <cell r="N10">
+            <v>21.1</v>
+          </cell>
+          <cell r="O10">
+            <v>10.08</v>
+          </cell>
+          <cell r="P10">
+            <v>17.95</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.337748344370862</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>44533</v>
+          </cell>
+          <cell r="U10">
+            <v>27.83</v>
+          </cell>
+          <cell r="V10">
+            <v>100</v>
+          </cell>
+          <cell r="W10">
+            <v>5</v>
+          </cell>
+          <cell r="X10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.05566</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AE10">
+            <v>29.81</v>
+          </cell>
+          <cell r="AF10">
+            <v>27.83</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>1.入场中枢点错误</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>JG_0000008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>JH_00016</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>002585</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>双星新材</v>
+          </cell>
+          <cell r="E11">
+            <v>44536</v>
+          </cell>
+          <cell r="F11">
+            <v>28.37</v>
+          </cell>
+          <cell r="G11">
+            <v>100</v>
+          </cell>
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>2842</v>
+          </cell>
+          <cell r="K11">
+            <v>29.7</v>
+          </cell>
+          <cell r="L11">
+            <v>27.69</v>
+          </cell>
+          <cell r="M11">
+            <v>30.41</v>
+          </cell>
+          <cell r="N11">
+            <v>22.76</v>
+          </cell>
+          <cell r="O11">
+            <v>7.65</v>
+          </cell>
+          <cell r="P11">
+            <v>25.15</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="R11">
+            <v>26.31</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>44537</v>
+          </cell>
+          <cell r="U11">
+            <v>26.7</v>
+          </cell>
+          <cell r="V11">
+            <v>100</v>
+          </cell>
+          <cell r="W11">
+            <v>5</v>
+          </cell>
+          <cell r="X11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11">
+            <v>-179.67</v>
+          </cell>
+          <cell r="AE11">
+            <v>28.37</v>
+          </cell>
+          <cell r="AF11">
+            <v>26.7</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>JG_0000009</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C12">
+            <v>603867</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E12">
+            <v>44540</v>
+          </cell>
+          <cell r="F12">
+            <v>37.73</v>
+          </cell>
+          <cell r="G12">
+            <v>200</v>
+          </cell>
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>0.15092</v>
+          </cell>
+          <cell r="J12">
+            <v>7551.15092</v>
+          </cell>
+          <cell r="K12">
+            <v>38.32</v>
+          </cell>
+          <cell r="L12">
+            <v>37.15</v>
+          </cell>
+          <cell r="M12">
+            <v>40.11</v>
+          </cell>
+          <cell r="N12">
+            <v>30.85</v>
+          </cell>
+          <cell r="O12">
+            <v>9.26</v>
+          </cell>
+          <cell r="P12">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.504273504273506</v>
+          </cell>
+          <cell r="R12">
+            <v>34.55</v>
+          </cell>
+          <cell r="S12">
+            <v>0</v>
+          </cell>
+          <cell r="T12">
+            <v>44554</v>
+          </cell>
+          <cell r="U12">
+            <v>34.52</v>
+          </cell>
+          <cell r="V12">
+            <v>100</v>
+          </cell>
+          <cell r="W12">
+            <v>5</v>
+          </cell>
+          <cell r="X12">
+            <v>3.452</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.6904</v>
+          </cell>
+          <cell r="Z12">
+            <v>3442.8576</v>
+          </cell>
+          <cell r="AA12">
+            <v>35.07</v>
+          </cell>
+          <cell r="AB12">
+            <v>33.85</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.549180327868854</v>
+          </cell>
+          <cell r="AD12">
+            <v>-1329.93008</v>
+          </cell>
+          <cell r="AE12">
+            <v>37.86</v>
+          </cell>
+          <cell r="AF12">
+            <v>34.6266666666667</v>
+          </cell>
+          <cell r="AG12" t="str">
+            <v>1.错过了卖出时机，要关注周线图的基底
+2.加仓时要同步上移止损线到新的支撑位</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>JG_0000010</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C13">
+            <v>603867</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E13">
+            <v>44540</v>
+          </cell>
+          <cell r="F13">
+            <v>37.99</v>
+          </cell>
+          <cell r="G13">
+            <v>200</v>
+          </cell>
+          <cell r="H13">
+            <v>5</v>
+          </cell>
+          <cell r="I13">
+            <v>0.15196</v>
+          </cell>
+          <cell r="J13">
+            <v>7603.15196</v>
+          </cell>
+          <cell r="K13">
+            <v>38.32</v>
+          </cell>
+          <cell r="L13">
+            <v>37.15</v>
+          </cell>
+          <cell r="M13">
+            <v>40.11</v>
+          </cell>
+          <cell r="N13">
+            <v>30.85</v>
+          </cell>
+          <cell r="O13">
+            <v>9.26</v>
+          </cell>
+          <cell r="P13">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.28205128205128</v>
+          </cell>
+          <cell r="R13">
+            <v>34.68</v>
+          </cell>
+          <cell r="S13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>44553</v>
+          </cell>
+          <cell r="U13">
+            <v>34.68</v>
+          </cell>
+          <cell r="V13">
+            <v>200</v>
+          </cell>
+          <cell r="W13">
+            <v>5</v>
+          </cell>
+          <cell r="X13">
+            <v>6.936</v>
+          </cell>
+          <cell r="Y13">
+            <v>1.3872</v>
+          </cell>
+          <cell r="Z13">
+            <v>6922.6768</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="T14">
+            <v>44554</v>
+          </cell>
+          <cell r="U14">
+            <v>34.68</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>3.468</v>
+          </cell>
+          <cell r="Y14">
+            <v>0.6936</v>
+          </cell>
+          <cell r="Z14">
+            <v>3458.8384</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>JH_00009</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>000733</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>振华科技</v>
+          </cell>
+          <cell r="E15">
+            <v>44540</v>
+          </cell>
+          <cell r="F15">
+            <v>115.97</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>11602</v>
+          </cell>
+          <cell r="K15">
+            <v>118</v>
+          </cell>
+          <cell r="L15">
+            <v>113.58</v>
+          </cell>
+          <cell r="M15">
+            <v>128.61</v>
+          </cell>
+          <cell r="N15">
+            <v>102.72</v>
+          </cell>
+          <cell r="O15">
+            <v>25.89</v>
+          </cell>
+          <cell r="P15">
+            <v>50.45</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.459276018099548</v>
+          </cell>
+          <cell r="R15">
+            <v>110.4</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>44543</v>
+          </cell>
+          <cell r="U15">
+            <v>111.66</v>
+          </cell>
+          <cell r="V15">
+            <v>100</v>
+          </cell>
+          <cell r="W15">
+            <v>5</v>
+          </cell>
+          <cell r="X15">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y15">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z15">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA15">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB15">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC15">
+            <v>0.267343485617597</v>
+          </cell>
+          <cell r="AD15">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AE15">
+            <v>115.97</v>
+          </cell>
+          <cell r="AF15">
+            <v>111.66</v>
+          </cell>
+          <cell r="AG15" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>JG_0000012</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>JH_00008</v>
+          </cell>
+          <cell r="C16">
+            <v>601677</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E16">
+            <v>44540</v>
+          </cell>
+          <cell r="F16">
+            <v>39.15</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="I16">
+            <v>0.0783</v>
+          </cell>
+          <cell r="J16">
+            <v>3920.0783</v>
+          </cell>
+          <cell r="K16">
+            <v>39.16</v>
+          </cell>
+          <cell r="L16">
+            <v>37.55</v>
+          </cell>
+          <cell r="M16">
+            <v>41.07</v>
+          </cell>
+          <cell r="N16">
+            <v>32.21</v>
+          </cell>
+          <cell r="O16">
+            <v>8.86</v>
+          </cell>
+          <cell r="P16">
+            <v>14.76</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.00621118012422237</v>
+          </cell>
+          <cell r="R16">
+            <v>35.91</v>
+          </cell>
+          <cell r="S16">
+            <v>0</v>
+          </cell>
+          <cell r="T16">
+            <v>44547</v>
+          </cell>
+          <cell r="U16">
+            <v>35.9</v>
+          </cell>
+          <cell r="V16">
+            <v>100</v>
+          </cell>
+          <cell r="W16">
+            <v>5</v>
+          </cell>
+          <cell r="X16">
+            <v>3.59</v>
+          </cell>
+          <cell r="Y16">
+            <v>0.718</v>
+          </cell>
+          <cell r="Z16">
+            <v>3580.692</v>
+          </cell>
+          <cell r="AA16">
+            <v>36.86</v>
+          </cell>
+          <cell r="AB16">
+            <v>35.6</v>
+          </cell>
+          <cell r="AC16">
+            <v>0.238095238095236</v>
+          </cell>
+          <cell r="AD16">
+            <v>-339.3863</v>
+          </cell>
+          <cell r="AE16">
+            <v>39.15</v>
+          </cell>
+          <cell r="AF16">
+            <v>35.9</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>JG_0000013</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>JH_00007</v>
+          </cell>
+          <cell r="C17">
+            <v>603688</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>石英股份</v>
+          </cell>
+          <cell r="E17">
+            <v>44540</v>
+          </cell>
+          <cell r="F17">
+            <v>64.3</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.1286</v>
+          </cell>
+          <cell r="J17">
+            <v>6435.1286</v>
+          </cell>
+          <cell r="K17">
+            <v>64.47</v>
+          </cell>
+          <cell r="L17">
+            <v>59.34</v>
+          </cell>
+          <cell r="M17">
+            <v>69.25</v>
+          </cell>
+          <cell r="N17">
+            <v>52.2</v>
+          </cell>
+          <cell r="O17">
+            <v>17.05</v>
+          </cell>
+          <cell r="P17">
+            <v>100.55</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.0331384015594546</v>
+          </cell>
+          <cell r="R17">
+            <v>58.51</v>
+          </cell>
+          <cell r="S17">
+            <v>0</v>
+          </cell>
+          <cell r="T17">
+            <v>44545</v>
+          </cell>
+          <cell r="U17">
+            <v>60.67</v>
+          </cell>
+          <cell r="V17">
+            <v>100</v>
+          </cell>
+          <cell r="W17">
+            <v>5</v>
+          </cell>
+          <cell r="X17">
+            <v>6.067</v>
+          </cell>
+          <cell r="Y17">
+            <v>1.2134</v>
+          </cell>
+          <cell r="Z17">
+            <v>6054.7196</v>
+          </cell>
+          <cell r="AA17">
+            <v>64.29</v>
+          </cell>
+          <cell r="AB17">
+            <v>60.28</v>
+          </cell>
+          <cell r="AC17">
+            <v>0.0972568578553616</v>
+          </cell>
+          <cell r="AD17">
+            <v>-380.409</v>
+          </cell>
+          <cell r="AE17">
+            <v>64.3</v>
+          </cell>
+          <cell r="AF17">
+            <v>60.67</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>JG_0000014</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.01</v>
+          </cell>
+          <cell r="G18">
+            <v>100</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J18">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>161.03402</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AC18" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>JG_0000015</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C19">
+            <v>600032</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E19">
+            <v>44543</v>
+          </cell>
+          <cell r="F19">
+            <v>17.19</v>
+          </cell>
+          <cell r="G19">
+            <v>200</v>
+          </cell>
+          <cell r="H19">
+            <v>5</v>
+          </cell>
+          <cell r="I19">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J19">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K19">
+            <v>17.5</v>
+          </cell>
+          <cell r="L19">
+            <v>16.48</v>
+          </cell>
+          <cell r="M19">
+            <v>18.44</v>
+          </cell>
+          <cell r="N19">
+            <v>14.86</v>
+          </cell>
+          <cell r="O19">
+            <v>3.58</v>
+          </cell>
+          <cell r="P19">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R19">
+            <v>15.5</v>
+          </cell>
+          <cell r="S19">
+            <v>348.06876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AC19" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>JG_0000016</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>JH_00022</v>
+          </cell>
+          <cell r="C20">
+            <v>600976</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>健民集团</v>
+          </cell>
+          <cell r="E20">
+            <v>44547</v>
+          </cell>
+          <cell r="F20">
+            <v>64.75</v>
+          </cell>
+          <cell r="G20">
+            <v>100</v>
+          </cell>
+          <cell r="H20">
+            <v>5</v>
+          </cell>
+          <cell r="I20">
+            <v>0.1295</v>
+          </cell>
+          <cell r="J20">
+            <v>6480.1295</v>
+          </cell>
+          <cell r="K20">
+            <v>65.9</v>
+          </cell>
+          <cell r="L20">
+            <v>60.17</v>
+          </cell>
+          <cell r="M20">
+            <v>67.42</v>
+          </cell>
+          <cell r="N20">
+            <v>46.04</v>
+          </cell>
+          <cell r="O20">
+            <v>21.38</v>
+          </cell>
+          <cell r="P20">
+            <v>35.75</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.200698080279233</v>
+          </cell>
+          <cell r="R20">
+            <v>59.29</v>
+          </cell>
+          <cell r="S20">
+            <v>556.1295</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>JG_0000017</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>JH_00028</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>002889</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>东方嘉盛</v>
+          </cell>
+          <cell r="E21">
+            <v>44550</v>
+          </cell>
+          <cell r="F21">
+            <v>27.83</v>
+          </cell>
+          <cell r="G21">
+            <v>100</v>
+          </cell>
+          <cell r="H21">
+            <v>5</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>2788</v>
+          </cell>
+          <cell r="K21">
+            <v>28.87</v>
+          </cell>
+          <cell r="L21">
+            <v>26.48</v>
+          </cell>
+          <cell r="M21">
+            <v>28.31</v>
+          </cell>
+          <cell r="N21">
+            <v>22.8</v>
+          </cell>
+          <cell r="O21">
+            <v>5.51</v>
+          </cell>
+          <cell r="P21">
+            <v>16.09</v>
+          </cell>
+          <cell r="Q21">
+            <v>0.435146443514645</v>
+          </cell>
+          <cell r="R21">
+            <v>26</v>
+          </cell>
+          <cell r="S21">
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>44553</v>
+          </cell>
+          <cell r="U21">
+            <v>26.02</v>
+          </cell>
+          <cell r="V21">
+            <v>100</v>
+          </cell>
+          <cell r="W21">
+            <v>5</v>
+          </cell>
+          <cell r="X21">
+            <v>2.602</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>2594.398</v>
+          </cell>
+          <cell r="AA21">
+            <v>26.77</v>
+          </cell>
+          <cell r="AB21">
+            <v>25.9</v>
+          </cell>
+          <cell r="AC21">
+            <v>0.13793103448276</v>
+          </cell>
+          <cell r="AD21">
+            <v>-193.602</v>
+          </cell>
+          <cell r="AE21">
+            <v>27.83</v>
+          </cell>
+          <cell r="AF21">
+            <v>26.02</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>JG_0000018</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>JH_00029</v>
+          </cell>
+          <cell r="C22">
+            <v>601677</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E22">
+            <v>44551</v>
+          </cell>
+          <cell r="F22">
+            <v>39.1</v>
+          </cell>
+          <cell r="G22">
+            <v>100</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+          <cell r="I22">
+            <v>0.0782</v>
+          </cell>
+          <cell r="J22">
+            <v>3915.0782</v>
+          </cell>
+          <cell r="K22">
+            <v>41.2</v>
+          </cell>
+          <cell r="L22">
+            <v>38</v>
+          </cell>
+          <cell r="M22">
+            <v>42.71</v>
+          </cell>
+          <cell r="N22">
+            <v>30.54</v>
+          </cell>
+          <cell r="O22">
+            <v>12.17</v>
+          </cell>
+          <cell r="P22">
+            <v>14.89</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.65625</v>
+          </cell>
+          <cell r="R22">
+            <v>35.6</v>
+          </cell>
+          <cell r="S22">
+            <v>360.0782</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AC22" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>JG_0000019</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>JH_00017</v>
+          </cell>
+          <cell r="C23">
+            <v>600085</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E23">
+            <v>44546</v>
+          </cell>
+          <cell r="F23">
+            <v>38.9</v>
+          </cell>
+          <cell r="G23">
+            <v>200</v>
+          </cell>
+          <cell r="H23">
+            <v>5</v>
+          </cell>
+          <cell r="I23">
+            <v>0.1556</v>
+          </cell>
+          <cell r="J23">
+            <v>7785.1556</v>
+          </cell>
+          <cell r="K23">
+            <v>38.95</v>
+          </cell>
+          <cell r="L23">
+            <v>37.47</v>
+          </cell>
+          <cell r="M23">
+            <v>40.39</v>
+          </cell>
+          <cell r="N23">
+            <v>32.08</v>
+          </cell>
+          <cell r="O23">
+            <v>8.31</v>
+          </cell>
+          <cell r="P23">
+            <v>41.56</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.0337837837837866</v>
+          </cell>
+          <cell r="R23">
+            <v>37</v>
+          </cell>
+          <cell r="S23">
+            <v>0</v>
+          </cell>
+          <cell r="T23">
+            <v>44554</v>
+          </cell>
+          <cell r="U23">
+            <v>43.97</v>
+          </cell>
+          <cell r="V23">
+            <v>200</v>
+          </cell>
+          <cell r="W23">
+            <v>5</v>
+          </cell>
+          <cell r="X23">
+            <v>8.794</v>
+          </cell>
+          <cell r="Y23">
+            <v>1.7588</v>
+          </cell>
+          <cell r="Z23">
+            <v>8778.4472</v>
+          </cell>
+          <cell r="AA23">
+            <v>45.9</v>
+          </cell>
+          <cell r="AB23">
+            <v>42.77</v>
+          </cell>
+          <cell r="AC23">
+            <v>0.383386581469648</v>
+          </cell>
+          <cell r="AD23">
+            <v>993.2916</v>
+          </cell>
+          <cell r="AE23">
+            <v>38.9</v>
+          </cell>
+          <cell r="AF23">
+            <v>43.97</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>JG_0000020</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>JH_00034</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>002557</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>洽洽食品</v>
+          </cell>
+          <cell r="E24">
+            <v>44554</v>
+          </cell>
+          <cell r="F24">
+            <v>61.72</v>
+          </cell>
+          <cell r="G24">
+            <v>300</v>
+          </cell>
+          <cell r="H24">
+            <v>5</v>
+          </cell>
+          <cell r="I24">
+            <v>0.37032</v>
+          </cell>
+          <cell r="J24">
+            <v>18521.37032</v>
+          </cell>
+          <cell r="K24">
+            <v>65.65</v>
+          </cell>
+          <cell r="L24">
+            <v>60.7</v>
+          </cell>
+          <cell r="M24">
+            <v>65.61</v>
+          </cell>
+          <cell r="N24">
+            <v>51.84</v>
+          </cell>
+          <cell r="O24">
+            <v>13.77</v>
+          </cell>
+          <cell r="P24">
+            <v>35.28</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.793939393939395</v>
+          </cell>
+          <cell r="R24">
+            <v>59.3</v>
+          </cell>
+          <cell r="S24">
+            <v>736.37032</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>JG_0000021</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>JG_0000022</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,11 +3248,11 @@
   <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4:Y5"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1443,8 +3274,7 @@
     <col min="18" max="18" width="15.6160714285714" customWidth="1"/>
     <col min="19" max="19" width="18.4553571428571" customWidth="1"/>
     <col min="20" max="20" width="19.3482142857143" customWidth="1"/>
-    <col min="21" max="21" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.4107142857143" style="1" customWidth="1"/>
+    <col min="21" max="22" width="24.4107142857143" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.0625" style="1" customWidth="1"/>
     <col min="24" max="24" width="20.5267857142857" style="1" customWidth="1"/>
     <col min="25" max="25" width="18.4464285714286" customWidth="1"/>
@@ -1457,15 +3287,15 @@
     <col min="32" max="32" width="18.75" customWidth="1"/>
     <col min="33" max="33" width="10.5625" customWidth="1"/>
     <col min="34" max="34" width="11" style="2" customWidth="1"/>
-    <col min="35" max="35" width="23.5089285714286" customWidth="1"/>
+    <col min="35" max="35" width="23.5089285714286" style="3" customWidth="1"/>
     <col min="36" max="36" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:36">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5"/>
@@ -1510,15 +3340,15 @@
       <c r="AH1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:36">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1552,11 +3382,11 @@
       <c r="AF2" s="22"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="17"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="15"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:36">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1626,11 +3456,11 @@
       <c r="AF3" s="34"/>
       <c r="AG3" s="34"/>
       <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="17"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="15"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1686,11 +3516,11 @@
       </c>
       <c r="AG4" s="34"/>
       <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="17"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="15"/>
     </row>
     <row r="5" ht="53" spans="1:36">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1703,16 +3533,16 @@
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="15" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="20" t="s">
@@ -1742,23 +3572,41 @@
       <c r="AF5" s="36"/>
       <c r="AG5" s="34"/>
       <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="17"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="15"/>
+    </row>
+    <row r="6" ht="18" spans="1:36">
       <c r="A6" s="7">
         <v>44523</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="8">
+        <v>40.66</v>
+      </c>
+      <c r="C6" s="8">
+        <v>38.24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>41.2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>38</v>
+      </c>
+      <c r="G6" s="8">
+        <v>37.04</v>
+      </c>
+      <c r="H6" s="8">
+        <v>35.44</v>
+      </c>
+      <c r="I6" s="10">
+        <v>14.89</v>
+      </c>
+      <c r="J6" s="15">
+        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1768,21 +3616,38 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="U6" s="27" t="str">
+        <f>IF(B6&lt;G6,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="28"/>
       <c r="Y6" s="32"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="10">
+        <f>D6-E6</f>
+        <v>3.2</v>
+      </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
+      <c r="AG6" s="41">
+        <v>35.6</v>
+      </c>
+      <c r="AH6" s="42">
+        <f>(AG6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AI6" s="43">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>0.0398976982097185</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="9">
@@ -1797,7 +3662,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1819,9 +3684,9 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
+      <c r="AG7" s="44"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="9">
@@ -1836,7 +3701,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1858,9 +3723,9 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
+      <c r="AG8" s="44"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="2"/>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="9">
@@ -1875,7 +3740,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1897,9 +3762,9 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
+      <c r="AG9" s="44"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="9">
@@ -1936,9 +3801,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
+      <c r="AG10" s="44"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="9">
@@ -1975,9 +3840,9 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
+      <c r="AG11" s="44"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="9">
@@ -2014,9 +3879,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
+      <c r="AG12" s="44"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="9">
@@ -2053,9 +3918,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
+      <c r="AG13" s="44"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="2"/>
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="9">
@@ -2092,9 +3957,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
+      <c r="AG14" s="44"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="2"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="9">
@@ -2131,9 +3996,9 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
+      <c r="AG15" s="44"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="2"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="9">
@@ -2170,9 +4035,9 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
+      <c r="AG16" s="44"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="9">
@@ -2209,9 +4074,9 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
+      <c r="AG17" s="44"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="2"/>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="9">
@@ -2248,9 +4113,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="39"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
+      <c r="AG18" s="44"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="2"/>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="9">
@@ -2287,9 +4152,9 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="39"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
+      <c r="AG19" s="44"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="9">
@@ -2326,9 +4191,9 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="39"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
+      <c r="AG20" s="44"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="9">
@@ -2365,9 +4230,9 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="39"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
+      <c r="AG21" s="44"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="9">
@@ -2404,9 +4269,9 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="39"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
+      <c r="AG22" s="44"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="9">
@@ -2443,9 +4308,9 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="39"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
+      <c r="AG23" s="44"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="9">
@@ -2482,9 +4347,9 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="39"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
+      <c r="AG24" s="44"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="9">
@@ -2521,9 +4386,9 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="39"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
+      <c r="AG25" s="44"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="9">
@@ -2560,9 +4425,9 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
+      <c r="AG26" s="44"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="9">
@@ -2599,9 +4464,9 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="39"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
+      <c r="AG27" s="44"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="9">
@@ -2638,9 +4503,9 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="39"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
+      <c r="AG28" s="44"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="9">
@@ -2677,9 +4542,9 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="39"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
+      <c r="AG29" s="44"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="2"/>
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="9">
@@ -2716,9 +4581,9 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="39"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
+      <c r="AG30" s="44"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="2"/>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="9">
@@ -2755,9 +4620,9 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="39"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
+      <c r="AG31" s="44"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="2"/>
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="9">
@@ -2794,9 +4659,9 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="39"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
+      <c r="AG32" s="44"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="2"/>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="9">
@@ -2833,9 +4698,9 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="39"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
+      <c r="AG33" s="44"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="2"/>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="9">
@@ -2872,9 +4737,9 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="39"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
+      <c r="AG34" s="44"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="2"/>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="9">
@@ -2911,9 +4776,9 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="39"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
+      <c r="AG35" s="44"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="2"/>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="9">
@@ -2950,9 +4815,9 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="39"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
+      <c r="AG36" s="44"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="2"/>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="9">
@@ -2989,9 +4854,9 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="39"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
+      <c r="AG37" s="44"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="2"/>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="9">
@@ -3028,9 +4893,9 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="39"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
+      <c r="AG38" s="44"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="2"/>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="9">
@@ -3067,9 +4932,9 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="39"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
+      <c r="AG39" s="44"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="2"/>
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="9">
@@ -3106,9 +4971,9 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="39"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
+      <c r="AG40" s="44"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="2"/>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="9">
@@ -3145,9 +5010,9 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="39"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
+      <c r="AG41" s="44"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="2"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" s="9">
@@ -3184,9 +5049,9 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="39"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
+      <c r="AG42" s="44"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="2"/>
     </row>
     <row r="43" spans="1:36">
       <c r="A43" s="9">
@@ -3223,9 +5088,9 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="39"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
+      <c r="AG43" s="44"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="2"/>
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="9">
@@ -3262,9 +5127,9 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="39"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
+      <c r="AG44" s="44"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="2"/>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="9">
@@ -3301,9 +5166,9 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="39"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
+      <c r="AG45" s="44"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="2"/>
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="9">
@@ -3340,9 +5205,9 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="39"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
+      <c r="AG46" s="44"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="2"/>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="9">
@@ -3379,9 +5244,9 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="39"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
+      <c r="AG47" s="44"/>
+      <c r="AI47" s="43"/>
+      <c r="AJ47" s="2"/>
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="9">
@@ -3418,9 +5283,9 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="39"/>
-      <c r="AI48" s="40"/>
-      <c r="AJ48" s="40"/>
+      <c r="AG48" s="44"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="2"/>
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="9">
@@ -3457,9 +5322,9 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="39"/>
-      <c r="AI49" s="40"/>
-      <c r="AJ49" s="40"/>
+      <c r="AG49" s="44"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="2"/>
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="9">
@@ -3496,9 +5361,9 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="39"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="40"/>
+      <c r="AG50" s="44"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="2"/>
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="9">
@@ -3535,9 +5400,9 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="39"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
+      <c r="AG51" s="44"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="2"/>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="9">
@@ -3574,9 +5439,9 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="39"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
+      <c r="AG52" s="44"/>
+      <c r="AI52" s="43"/>
+      <c r="AJ52" s="2"/>
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="9">
@@ -3613,9 +5478,9 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="39"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
+      <c r="AG53" s="44"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="2"/>
     </row>
     <row r="54" spans="1:36">
       <c r="A54" s="9">
@@ -3652,9 +5517,9 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="39"/>
-      <c r="AI54" s="40"/>
-      <c r="AJ54" s="40"/>
+      <c r="AG54" s="44"/>
+      <c r="AI54" s="43"/>
+      <c r="AJ54" s="2"/>
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="9">
@@ -3691,9 +5556,9 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="39"/>
-      <c r="AI55" s="40"/>
-      <c r="AJ55" s="40"/>
+      <c r="AG55" s="44"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="2"/>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="9">
@@ -3730,9 +5595,9 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="39"/>
-      <c r="AI56" s="40"/>
-      <c r="AJ56" s="40"/>
+      <c r="AG56" s="44"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="2"/>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="9">
@@ -3769,9 +5634,9 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-      <c r="AG57" s="39"/>
-      <c r="AI57" s="40"/>
-      <c r="AJ57" s="40"/>
+      <c r="AG57" s="44"/>
+      <c r="AI57" s="43"/>
+      <c r="AJ57" s="2"/>
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="9">
@@ -3808,9 +5673,9 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="39"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
+      <c r="AG58" s="44"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="2"/>
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="9">
@@ -3847,9 +5712,9 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="39"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="40"/>
+      <c r="AG59" s="44"/>
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="2"/>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="9">
@@ -3886,9 +5751,9 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="39"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="40"/>
+      <c r="AG60" s="44"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="2"/>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="9">
@@ -3925,9 +5790,9 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-      <c r="AG61" s="39"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="40"/>
+      <c r="AG61" s="44"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="2"/>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="9">
@@ -3964,9 +5829,9 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="39"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
+      <c r="AG62" s="44"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="2"/>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="9">
@@ -4003,9 +5868,9 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="39"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="40"/>
+      <c r="AG63" s="44"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="2"/>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="9">
@@ -4042,9 +5907,9 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="39"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
+      <c r="AG64" s="44"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="2"/>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="9">
@@ -4081,9 +5946,9 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="39"/>
-      <c r="AI65" s="40"/>
-      <c r="AJ65" s="40"/>
+      <c r="AG65" s="44"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="2"/>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="9">
@@ -4120,9 +5985,9 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="39"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
+      <c r="AG66" s="44"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="2"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="9">
@@ -4159,9 +6024,9 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-      <c r="AG67" s="39"/>
-      <c r="AI67" s="40"/>
-      <c r="AJ67" s="40"/>
+      <c r="AG67" s="44"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="2"/>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="9">
@@ -4198,9 +6063,9 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="39"/>
-      <c r="AI68" s="40"/>
-      <c r="AJ68" s="40"/>
+      <c r="AG68" s="44"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="2"/>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="9">
@@ -4237,9 +6102,9 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="39"/>
-      <c r="AI69" s="40"/>
-      <c r="AJ69" s="40"/>
+      <c r="AG69" s="44"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="2"/>
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="9">
@@ -4276,9 +6141,9 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="39"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
+      <c r="AG70" s="44"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="2"/>
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="9">
@@ -4315,9 +6180,9 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="39"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
+      <c r="AG71" s="44"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="2"/>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="9">
@@ -4354,9 +6219,9 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="39"/>
-      <c r="AI72" s="40"/>
-      <c r="AJ72" s="40"/>
+      <c r="AG72" s="44"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="2"/>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="9">
@@ -4393,9 +6258,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-      <c r="AG73" s="39"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="40"/>
+      <c r="AG73" s="44"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="2"/>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="9">
@@ -4432,9 +6297,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="39"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
+      <c r="AG74" s="44"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="2"/>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="9">
@@ -4471,9 +6336,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-      <c r="AG75" s="39"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
+      <c r="AG75" s="44"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="2"/>
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="9">
@@ -4510,9 +6375,9 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="39"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
+      <c r="AG76" s="44"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="2"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="9">
@@ -4549,9 +6414,9 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="39"/>
-      <c r="AI77" s="40"/>
-      <c r="AJ77" s="40"/>
+      <c r="AG77" s="44"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="2"/>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="9">
@@ -4588,9 +6453,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="39"/>
-      <c r="AI78" s="40"/>
-      <c r="AJ78" s="40"/>
+      <c r="AG78" s="44"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="2"/>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="9">
@@ -4627,9 +6492,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-      <c r="AG79" s="39"/>
-      <c r="AI79" s="40"/>
-      <c r="AJ79" s="40"/>
+      <c r="AG79" s="44"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="2"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="9">
@@ -4666,9 +6531,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="39"/>
-      <c r="AI80" s="40"/>
-      <c r="AJ80" s="40"/>
+      <c r="AG80" s="44"/>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="2"/>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="9">
@@ -4705,9 +6570,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-      <c r="AG81" s="39"/>
-      <c r="AI81" s="40"/>
-      <c r="AJ81" s="40"/>
+      <c r="AG81" s="44"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="2"/>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="9">
@@ -4744,9 +6609,9 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="39"/>
-      <c r="AI82" s="40"/>
-      <c r="AJ82" s="40"/>
+      <c r="AG82" s="44"/>
+      <c r="AI82" s="43"/>
+      <c r="AJ82" s="2"/>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="9">
@@ -4783,9 +6648,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="39"/>
-      <c r="AI83" s="40"/>
-      <c r="AJ83" s="40"/>
+      <c r="AG83" s="44"/>
+      <c r="AI83" s="43"/>
+      <c r="AJ83" s="2"/>
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="9">
@@ -4822,9 +6687,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="39"/>
-      <c r="AI84" s="40"/>
-      <c r="AJ84" s="40"/>
+      <c r="AG84" s="44"/>
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="2"/>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="9">
@@ -4861,9 +6726,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="39"/>
-      <c r="AI85" s="40"/>
-      <c r="AJ85" s="40"/>
+      <c r="AG85" s="44"/>
+      <c r="AI85" s="43"/>
+      <c r="AJ85" s="2"/>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="9">
@@ -4900,9 +6765,9 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="39"/>
-      <c r="AI86" s="40"/>
-      <c r="AJ86" s="40"/>
+      <c r="AG86" s="44"/>
+      <c r="AI86" s="43"/>
+      <c r="AJ86" s="2"/>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="9">
@@ -4939,9 +6804,9 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="39"/>
-      <c r="AI87" s="40"/>
-      <c r="AJ87" s="40"/>
+      <c r="AG87" s="44"/>
+      <c r="AI87" s="43"/>
+      <c r="AJ87" s="2"/>
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="9">
@@ -4978,9 +6843,9 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="39"/>
-      <c r="AI88" s="40"/>
-      <c r="AJ88" s="40"/>
+      <c r="AG88" s="44"/>
+      <c r="AI88" s="43"/>
+      <c r="AJ88" s="2"/>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="9">
@@ -5017,9 +6882,9 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="39"/>
-      <c r="AI89" s="40"/>
-      <c r="AJ89" s="40"/>
+      <c r="AG89" s="44"/>
+      <c r="AI89" s="43"/>
+      <c r="AJ89" s="2"/>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="9">
@@ -5056,9 +6921,9 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="39"/>
-      <c r="AI90" s="40"/>
-      <c r="AJ90" s="40"/>
+      <c r="AG90" s="44"/>
+      <c r="AI90" s="43"/>
+      <c r="AJ90" s="2"/>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="9">
@@ -5095,9 +6960,9 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="39"/>
-      <c r="AI91" s="40"/>
-      <c r="AJ91" s="40"/>
+      <c r="AG91" s="44"/>
+      <c r="AI91" s="43"/>
+      <c r="AJ91" s="2"/>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="9">
@@ -5134,9 +6999,9 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="39"/>
-      <c r="AI92" s="40"/>
-      <c r="AJ92" s="40"/>
+      <c r="AG92" s="44"/>
+      <c r="AI92" s="43"/>
+      <c r="AJ92" s="2"/>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="9">
@@ -5173,9 +7038,9 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="39"/>
-      <c r="AI93" s="40"/>
-      <c r="AJ93" s="40"/>
+      <c r="AG93" s="44"/>
+      <c r="AI93" s="43"/>
+      <c r="AJ93" s="2"/>
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="9">
@@ -5212,9 +7077,9 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="39"/>
-      <c r="AI94" s="40"/>
-      <c r="AJ94" s="40"/>
+      <c r="AG94" s="44"/>
+      <c r="AI94" s="43"/>
+      <c r="AJ94" s="2"/>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="9">
@@ -5251,9 +7116,9 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-      <c r="AG95" s="39"/>
-      <c r="AI95" s="40"/>
-      <c r="AJ95" s="40"/>
+      <c r="AG95" s="44"/>
+      <c r="AI95" s="43"/>
+      <c r="AJ95" s="2"/>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="9">
@@ -5290,9 +7155,9 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="39"/>
-      <c r="AI96" s="40"/>
-      <c r="AJ96" s="40"/>
+      <c r="AG96" s="44"/>
+      <c r="AI96" s="43"/>
+      <c r="AJ96" s="2"/>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="9">
@@ -5329,9 +7194,9 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-      <c r="AG97" s="39"/>
-      <c r="AI97" s="40"/>
-      <c r="AJ97" s="40"/>
+      <c r="AG97" s="44"/>
+      <c r="AI97" s="43"/>
+      <c r="AJ97" s="2"/>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="9">
@@ -5368,9 +7233,9 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="39"/>
-      <c r="AI98" s="40"/>
-      <c r="AJ98" s="40"/>
+      <c r="AG98" s="44"/>
+      <c r="AI98" s="43"/>
+      <c r="AJ98" s="2"/>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="9">
@@ -5407,9 +7272,9 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="39"/>
-      <c r="AI99" s="40"/>
-      <c r="AJ99" s="40"/>
+      <c r="AG99" s="44"/>
+      <c r="AI99" s="43"/>
+      <c r="AJ99" s="2"/>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="9">
@@ -5446,9 +7311,9 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="39"/>
-      <c r="AI100" s="40"/>
-      <c r="AJ100" s="40"/>
+      <c r="AG100" s="44"/>
+      <c r="AI100" s="43"/>
+      <c r="AJ100" s="2"/>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="9">
@@ -5485,9 +7350,9 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
-      <c r="AG101" s="39"/>
-      <c r="AI101" s="40"/>
-      <c r="AJ101" s="40"/>
+      <c r="AG101" s="44"/>
+      <c r="AI101" s="43"/>
+      <c r="AJ101" s="2"/>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="9">
@@ -5524,9 +7389,9 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="39"/>
-      <c r="AI102" s="40"/>
-      <c r="AJ102" s="40"/>
+      <c r="AG102" s="44"/>
+      <c r="AI102" s="43"/>
+      <c r="AJ102" s="2"/>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="9">
@@ -5563,9 +7428,9 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="39"/>
-      <c r="AI103" s="40"/>
-      <c r="AJ103" s="40"/>
+      <c r="AG103" s="44"/>
+      <c r="AI103" s="43"/>
+      <c r="AJ103" s="2"/>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="9">
@@ -5602,9 +7467,9 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="39"/>
-      <c r="AI104" s="40"/>
-      <c r="AJ104" s="40"/>
+      <c r="AG104" s="44"/>
+      <c r="AI104" s="43"/>
+      <c r="AJ104" s="2"/>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="9">
@@ -5641,9 +7506,9 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
-      <c r="AG105" s="39"/>
-      <c r="AI105" s="40"/>
-      <c r="AJ105" s="40"/>
+      <c r="AG105" s="44"/>
+      <c r="AI105" s="43"/>
+      <c r="AJ105" s="2"/>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="9">
@@ -5680,9 +7545,9 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="39"/>
-      <c r="AI106" s="40"/>
-      <c r="AJ106" s="40"/>
+      <c r="AG106" s="44"/>
+      <c r="AI106" s="43"/>
+      <c r="AJ106" s="2"/>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="9">
@@ -5719,9 +7584,9 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="39"/>
-      <c r="AI107" s="40"/>
-      <c r="AJ107" s="40"/>
+      <c r="AG107" s="44"/>
+      <c r="AI107" s="43"/>
+      <c r="AJ107" s="2"/>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="9">
@@ -5758,9 +7623,9 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="39"/>
-      <c r="AI108" s="40"/>
-      <c r="AJ108" s="40"/>
+      <c r="AG108" s="44"/>
+      <c r="AI108" s="43"/>
+      <c r="AJ108" s="2"/>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="9">
@@ -5797,9 +7662,9 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="39"/>
-      <c r="AI109" s="40"/>
-      <c r="AJ109" s="40"/>
+      <c r="AG109" s="44"/>
+      <c r="AI109" s="43"/>
+      <c r="AJ109" s="2"/>
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="9">
@@ -5836,9 +7701,9 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="39"/>
-      <c r="AI110" s="40"/>
-      <c r="AJ110" s="40"/>
+      <c r="AG110" s="44"/>
+      <c r="AI110" s="43"/>
+      <c r="AJ110" s="2"/>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="9">
@@ -5875,9 +7740,9 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="39"/>
-      <c r="AI111" s="40"/>
-      <c r="AJ111" s="40"/>
+      <c r="AG111" s="44"/>
+      <c r="AI111" s="43"/>
+      <c r="AJ111" s="2"/>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="9">
@@ -5914,9 +7779,9 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="39"/>
-      <c r="AI112" s="40"/>
-      <c r="AJ112" s="40"/>
+      <c r="AG112" s="44"/>
+      <c r="AI112" s="43"/>
+      <c r="AJ112" s="2"/>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="9">
@@ -5953,9 +7818,9 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="39"/>
-      <c r="AI113" s="40"/>
-      <c r="AJ113" s="40"/>
+      <c r="AG113" s="44"/>
+      <c r="AI113" s="43"/>
+      <c r="AJ113" s="2"/>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="9">
@@ -5992,9 +7857,9 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
-      <c r="AG114" s="39"/>
-      <c r="AI114" s="40"/>
-      <c r="AJ114" s="40"/>
+      <c r="AG114" s="44"/>
+      <c r="AI114" s="43"/>
+      <c r="AJ114" s="2"/>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="9">
@@ -6031,9 +7896,9 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="39"/>
-      <c r="AI115" s="40"/>
-      <c r="AJ115" s="40"/>
+      <c r="AG115" s="44"/>
+      <c r="AI115" s="43"/>
+      <c r="AJ115" s="2"/>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="9">
@@ -6070,9 +7935,9 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="39"/>
-      <c r="AI116" s="40"/>
-      <c r="AJ116" s="40"/>
+      <c r="AG116" s="44"/>
+      <c r="AI116" s="43"/>
+      <c r="AJ116" s="2"/>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="9">
@@ -6109,9 +7974,9 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
-      <c r="AG117" s="39"/>
-      <c r="AI117" s="40"/>
-      <c r="AJ117" s="40"/>
+      <c r="AG117" s="44"/>
+      <c r="AI117" s="43"/>
+      <c r="AJ117" s="2"/>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="9">
@@ -6148,9 +8013,9 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="39"/>
-      <c r="AI118" s="40"/>
-      <c r="AJ118" s="40"/>
+      <c r="AG118" s="44"/>
+      <c r="AI118" s="43"/>
+      <c r="AJ118" s="2"/>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="9">
@@ -6187,9 +8052,9 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="39"/>
-      <c r="AI119" s="40"/>
-      <c r="AJ119" s="40"/>
+      <c r="AG119" s="44"/>
+      <c r="AI119" s="43"/>
+      <c r="AJ119" s="2"/>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="9">
@@ -6226,9 +8091,9 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="39"/>
-      <c r="AI120" s="40"/>
-      <c r="AJ120" s="40"/>
+      <c r="AG120" s="44"/>
+      <c r="AI120" s="43"/>
+      <c r="AJ120" s="2"/>
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="9">
@@ -6265,9 +8130,9 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
-      <c r="AG121" s="39"/>
-      <c r="AI121" s="40"/>
-      <c r="AJ121" s="40"/>
+      <c r="AG121" s="44"/>
+      <c r="AI121" s="43"/>
+      <c r="AJ121" s="2"/>
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="9">
@@ -6304,9 +8169,9 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="39"/>
-      <c r="AI122" s="40"/>
-      <c r="AJ122" s="40"/>
+      <c r="AG122" s="44"/>
+      <c r="AI122" s="43"/>
+      <c r="AJ122" s="2"/>
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="9">
@@ -6343,9 +8208,9 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="39"/>
-      <c r="AI123" s="40"/>
-      <c r="AJ123" s="40"/>
+      <c r="AG123" s="44"/>
+      <c r="AI123" s="43"/>
+      <c r="AJ123" s="2"/>
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="9">
@@ -6382,9 +8247,9 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="39"/>
-      <c r="AI124" s="40"/>
-      <c r="AJ124" s="40"/>
+      <c r="AG124" s="44"/>
+      <c r="AI124" s="43"/>
+      <c r="AJ124" s="2"/>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="9">
@@ -6421,9 +8286,9 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="39"/>
-      <c r="AI125" s="40"/>
-      <c r="AJ125" s="40"/>
+      <c r="AG125" s="44"/>
+      <c r="AI125" s="43"/>
+      <c r="AJ125" s="2"/>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="9">
@@ -6460,9 +8325,9 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="39"/>
-      <c r="AI126" s="40"/>
-      <c r="AJ126" s="40"/>
+      <c r="AG126" s="44"/>
+      <c r="AI126" s="43"/>
+      <c r="AJ126" s="2"/>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="9">
@@ -6499,9 +8364,9 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
-      <c r="AG127" s="39"/>
-      <c r="AI127" s="40"/>
-      <c r="AJ127" s="40"/>
+      <c r="AG127" s="44"/>
+      <c r="AI127" s="43"/>
+      <c r="AJ127" s="2"/>
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="9">
@@ -6538,9 +8403,9 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="39"/>
-      <c r="AI128" s="40"/>
-      <c r="AJ128" s="40"/>
+      <c r="AG128" s="44"/>
+      <c r="AI128" s="43"/>
+      <c r="AJ128" s="2"/>
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="9">
@@ -6577,9 +8442,9 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="39"/>
-      <c r="AI129" s="40"/>
-      <c r="AJ129" s="40"/>
+      <c r="AG129" s="44"/>
+      <c r="AI129" s="43"/>
+      <c r="AJ129" s="2"/>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="9">
@@ -6616,9 +8481,9 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
-      <c r="AG130" s="39"/>
-      <c r="AI130" s="40"/>
-      <c r="AJ130" s="40"/>
+      <c r="AG130" s="44"/>
+      <c r="AI130" s="43"/>
+      <c r="AJ130" s="2"/>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="9">
@@ -6655,9 +8520,9 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
-      <c r="AG131" s="39"/>
-      <c r="AI131" s="40"/>
-      <c r="AJ131" s="40"/>
+      <c r="AG131" s="44"/>
+      <c r="AI131" s="43"/>
+      <c r="AJ131" s="2"/>
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="9">
@@ -6694,9 +8559,9 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
-      <c r="AG132" s="39"/>
-      <c r="AI132" s="40"/>
-      <c r="AJ132" s="40"/>
+      <c r="AG132" s="44"/>
+      <c r="AI132" s="43"/>
+      <c r="AJ132" s="2"/>
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="1"/>
@@ -6719,7 +8584,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="AH133" s="41"/>
+      <c r="AH133" s="45"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>日期</t>
   </si>
@@ -176,15 +176,15 @@
   </si>
   <si>
     <t>动量M
-(2周内上涨天数达到25%)</t>
+(15个交易日内上涨天数达到25%)</t>
   </si>
   <si>
     <t>交易量V
-(2周内上涨交易量达到25%)</t>
+(15个交易日内上涨交易量达到25%)</t>
   </si>
   <si>
     <t>价格P
-(2内涨幅达到20%)</t>
+(15个交易日内涨幅达到20%)</t>
   </si>
   <si>
     <r>
@@ -237,23 +237,20 @@
   <si>
     <t>是</t>
   </si>
-  <si>
-    <t>否</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -309,17 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +322,68 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -341,23 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,13 +408,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,10 +415,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,47 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +488,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,13 +512,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +602,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,151 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,76 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,170 +767,235 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1010,19 +1007,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1034,7 +1031,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,7 +1043,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,16 +1061,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,19 +1091,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,13 +1121,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,58 +1136,52 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -3312,14 +3315,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ505"/>
+  <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6:X9"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3352,7 +3355,7 @@
     <col min="30" max="30" width="26.4821428571429" customWidth="1"/>
     <col min="31" max="31" width="24.5446428571429" customWidth="1"/>
     <col min="32" max="32" width="18.75" customWidth="1"/>
-    <col min="33" max="33" width="10.5625" customWidth="1"/>
+    <col min="33" max="33" width="10.5625" style="4" customWidth="1"/>
     <col min="34" max="34" width="11" style="5" customWidth="1"/>
     <col min="35" max="35" width="23.5089285714286" style="6" customWidth="1"/>
     <col min="36" max="36" width="15.4732142857143" customWidth="1"/>
@@ -3382,35 +3385,35 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="32" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="51" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AH1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AI1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="59" t="s">
+      <c r="AJ1" s="62" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3432,24 +3435,24 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="60"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="63"/>
       <c r="AJ2" s="21"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:36">
@@ -3498,32 +3501,32 @@
         <v>22</v>
       </c>
       <c r="Q3" s="19"/>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="33" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="51" t="s">
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="60"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="63"/>
       <c r="AJ3" s="21"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
@@ -3544,49 +3547,49 @@
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="35" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="X4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AD4" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AF4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="63"/>
       <c r="AJ4" s="21"/>
     </row>
-    <row r="5" ht="53" spans="1:36">
+    <row r="5" ht="71" spans="1:36">
       <c r="A5" s="7"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3612,34 +3615,34 @@
       <c r="Q5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="43" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="43" t="s">
+      <c r="AA5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="60"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="63"/>
       <c r="AJ5" s="21"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="18" spans="1:36">
@@ -3679,44 +3682,44 @@
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="37" t="str">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="41" t="str">
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="39" t="s">
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="48">
         <f>$I6/$I$6</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="46"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="50"/>
       <c r="AC6" s="11">
         <f>D6-E6</f>
         <v>3.2</v>
       </c>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="61">
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="64">
         <v>35.6</v>
       </c>
-      <c r="AH6" s="62">
+      <c r="AH6" s="65">
         <f>(AG6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,7,FALSE)</f>
         <v>-350</v>
       </c>
-      <c r="AI6" s="63">
+      <c r="AI6" s="51">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE)</f>
         <v>0.0398976982097185</v>
       </c>
@@ -3762,45 +3765,45 @@
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="37" t="str">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="41" t="str">
         <f>IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39" t="s">
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="48">
         <f>$I7/$I$6</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
       <c r="AC7" s="11">
         <f>D7-E7</f>
         <v>2.69</v>
       </c>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="61">
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="64">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
         <v>35.6</v>
       </c>
-      <c r="AH7" s="62">
+      <c r="AH7" s="65">
         <f>(AG7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,7,FALSE)</f>
         <v>-350</v>
       </c>
-      <c r="AI7" s="63">
+      <c r="AI7" s="51">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>0.0734015345268541</v>
       </c>
@@ -3844,27 +3847,27 @@
         <f>(B8-B7)/B7</f>
         <v>0.0459852275434834</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>48</v>
+      <c r="L8" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="37" t="str">
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="41" t="str">
         <f>IF(B8&lt;G8,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="39" t="s">
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="48">
         <f>$I8/$I$6</f>
         <v>1</v>
       </c>
@@ -3878,15 +3881,15 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="61">
+      <c r="AG8" s="64">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
         <v>35.6</v>
       </c>
-      <c r="AH8" s="62">
+      <c r="AH8" s="65">
         <f>(AG8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
         <v>-350</v>
       </c>
-      <c r="AI8" s="63">
+      <c r="AI8" s="51">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.122762148337596</v>
       </c>
@@ -3939,16 +3942,16 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="37" t="str">
+      <c r="U9" s="41" t="str">
         <f>IF(B9&lt;G9,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="39" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="44">
+      <c r="Y9" s="48">
         <f>$I9/$I$6</f>
         <v>1.19929824561404</v>
       </c>
@@ -3962,15 +3965,15 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="61">
+      <c r="AG9" s="64">
         <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
         <v>35.6</v>
       </c>
-      <c r="AH9" s="62">
+      <c r="AH9" s="65">
         <f>(AG9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
         <v>-350</v>
       </c>
-      <c r="AI9" s="63">
+      <c r="AI9" s="51">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.109462915601023</v>
       </c>
@@ -3978,50 +3981,102 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" ht="18" spans="1:36">
       <c r="A10" s="13">
-        <v>44525</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
+        <v>44527</v>
+      </c>
+      <c r="B10" s="11">
+        <v>42.28</v>
+      </c>
+      <c r="C10" s="11">
+        <v>43.19</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43.76</v>
+      </c>
+      <c r="E10" s="11">
+        <v>41.81</v>
+      </c>
+      <c r="F10" s="11">
+        <v>9.0042</v>
+      </c>
+      <c r="G10" s="11">
+        <v>38.97</v>
+      </c>
+      <c r="H10" s="11">
+        <v>36.54</v>
+      </c>
+      <c r="I10" s="11">
+        <v>16.89</v>
+      </c>
+      <c r="J10" s="26">
+        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="24">
+        <f>(B10-B9)/B9</f>
+        <v>-0.0253573075149839</v>
+      </c>
       <c r="L10" s="25"/>
-      <c r="M10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="28">
+        <f>COUNTIF(K6:K10,"&gt;0")/5</f>
+        <v>0.4</v>
+      </c>
       <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="P10" s="29">
+        <f>COUNTIF(J6:J10,"&gt;0")/5</f>
+        <v>0.8</v>
+      </c>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="5"/>
+      <c r="U10" s="41" t="str">
+        <f>IF(B10&lt;G10,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="48">
+        <f>$I10/$I$6</f>
+        <v>1.18526315789474</v>
+      </c>
+      <c r="Z10" s="51">
+        <f>(B10-B6)/B6</f>
+        <v>0.0398425971470734</v>
+      </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="56"/>
+      <c r="AC10" s="11">
+        <f>D10-E10</f>
+        <v>1.95</v>
+      </c>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="64"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="5"/>
+      <c r="AG10" s="64">
+        <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
+        <v>35.6</v>
+      </c>
+      <c r="AH10" s="65">
+        <f>(AG10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AI10" s="51">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.0813299232736573</v>
+      </c>
+      <c r="AJ10" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="13">
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -4032,7 +4087,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -4042,25 +4097,25 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="47"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="52"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="56"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="64"/>
-      <c r="AI11" s="63"/>
+      <c r="AG11" s="66"/>
+      <c r="AI11" s="51"/>
       <c r="AJ11" s="5"/>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="13">
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4085,21 +4140,21 @@
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
-      <c r="Y12" s="48"/>
+      <c r="Y12" s="52"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="56"/>
+      <c r="AC12" s="59"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="64"/>
-      <c r="AI12" s="63"/>
+      <c r="AG12" s="66"/>
+      <c r="AI12" s="51"/>
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="13">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -4124,21 +4179,21 @@
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
-      <c r="Y13" s="48"/>
+      <c r="Y13" s="52"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="56"/>
+      <c r="AC13" s="59"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="64"/>
-      <c r="AI13" s="63"/>
+      <c r="AG13" s="66"/>
+      <c r="AI13" s="51"/>
       <c r="AJ13" s="5"/>
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="13">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4163,21 +4218,21 @@
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
       <c r="X14" s="25"/>
-      <c r="Y14" s="48"/>
+      <c r="Y14" s="52"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="56"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="64"/>
-      <c r="AI14" s="63"/>
+      <c r="AG14" s="66"/>
+      <c r="AI14" s="51"/>
       <c r="AJ14" s="5"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="13">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -4202,21 +4257,21 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
-      <c r="Y15" s="48"/>
+      <c r="Y15" s="52"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="56"/>
+      <c r="AC15" s="59"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="64"/>
-      <c r="AI15" s="63"/>
+      <c r="AG15" s="66"/>
+      <c r="AI15" s="51"/>
       <c r="AJ15" s="5"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="13">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4241,21 +4296,21 @@
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
-      <c r="Y16" s="48"/>
+      <c r="Y16" s="52"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="56"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="64"/>
-      <c r="AI16" s="63"/>
+      <c r="AG16" s="66"/>
+      <c r="AI16" s="51"/>
       <c r="AJ16" s="5"/>
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="13">
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -4280,21 +4335,21 @@
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
-      <c r="Y17" s="48"/>
+      <c r="Y17" s="52"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="56"/>
+      <c r="AC17" s="59"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="64"/>
-      <c r="AI17" s="63"/>
+      <c r="AG17" s="66"/>
+      <c r="AI17" s="51"/>
       <c r="AJ17" s="5"/>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="13">
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4319,21 +4374,21 @@
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
-      <c r="Y18" s="48"/>
+      <c r="Y18" s="52"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="56"/>
+      <c r="AC18" s="59"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="64"/>
-      <c r="AI18" s="63"/>
+      <c r="AG18" s="66"/>
+      <c r="AI18" s="51"/>
       <c r="AJ18" s="5"/>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="13">
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4358,21 +4413,21 @@
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
-      <c r="Y19" s="48"/>
+      <c r="Y19" s="52"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="56"/>
+      <c r="AC19" s="59"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="64"/>
-      <c r="AI19" s="63"/>
+      <c r="AG19" s="66"/>
+      <c r="AI19" s="51"/>
       <c r="AJ19" s="5"/>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="13">
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4397,21 +4452,21 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="48"/>
+      <c r="Y20" s="52"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="56"/>
+      <c r="AC20" s="59"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="64"/>
-      <c r="AI20" s="63"/>
+      <c r="AG20" s="66"/>
+      <c r="AI20" s="51"/>
       <c r="AJ20" s="5"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="13">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4436,21 +4491,21 @@
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
       <c r="X21" s="25"/>
-      <c r="Y21" s="48"/>
+      <c r="Y21" s="52"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="56"/>
+      <c r="AC21" s="59"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="64"/>
-      <c r="AI21" s="63"/>
+      <c r="AG21" s="66"/>
+      <c r="AI21" s="51"/>
       <c r="AJ21" s="5"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="13">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -4475,21 +4530,21 @@
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
-      <c r="Y22" s="48"/>
+      <c r="Y22" s="52"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="56"/>
+      <c r="AC22" s="59"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="64"/>
-      <c r="AI22" s="63"/>
+      <c r="AG22" s="66"/>
+      <c r="AI22" s="51"/>
       <c r="AJ22" s="5"/>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="13">
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4514,21 +4569,21 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="48"/>
+      <c r="Y23" s="52"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="56"/>
+      <c r="AC23" s="59"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="64"/>
-      <c r="AI23" s="63"/>
+      <c r="AG23" s="66"/>
+      <c r="AI23" s="51"/>
       <c r="AJ23" s="5"/>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="13">
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -4553,21 +4608,21 @@
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
-      <c r="Y24" s="48"/>
+      <c r="Y24" s="52"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="56"/>
+      <c r="AC24" s="59"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="64"/>
-      <c r="AI24" s="63"/>
+      <c r="AG24" s="66"/>
+      <c r="AI24" s="51"/>
       <c r="AJ24" s="5"/>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="13">
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4592,21 +4647,21 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="48"/>
+      <c r="Y25" s="52"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
-      <c r="AC25" s="56"/>
+      <c r="AC25" s="59"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="64"/>
-      <c r="AI25" s="63"/>
+      <c r="AG25" s="66"/>
+      <c r="AI25" s="51"/>
       <c r="AJ25" s="5"/>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="13">
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4631,21 +4686,21 @@
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
-      <c r="Y26" s="48"/>
+      <c r="Y26" s="52"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="56"/>
+      <c r="AC26" s="59"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="64"/>
-      <c r="AI26" s="63"/>
+      <c r="AG26" s="66"/>
+      <c r="AI26" s="51"/>
       <c r="AJ26" s="5"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="13">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4670,21 +4725,21 @@
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
-      <c r="Y27" s="48"/>
+      <c r="Y27" s="52"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="56"/>
+      <c r="AC27" s="59"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="64"/>
-      <c r="AI27" s="63"/>
+      <c r="AG27" s="66"/>
+      <c r="AI27" s="51"/>
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="13">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4709,21 +4764,21 @@
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
-      <c r="Y28" s="48"/>
+      <c r="Y28" s="25"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="56"/>
+      <c r="AC28" s="59"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="64"/>
-      <c r="AI28" s="63"/>
+      <c r="AG28" s="66"/>
+      <c r="AI28" s="51"/>
       <c r="AJ28" s="5"/>
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="13">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4748,21 +4803,21 @@
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
-      <c r="Y29" s="48"/>
+      <c r="Y29" s="25"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="56"/>
+      <c r="AC29" s="59"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="64"/>
-      <c r="AI29" s="63"/>
+      <c r="AG29" s="66"/>
+      <c r="AI29" s="51"/>
       <c r="AJ29" s="5"/>
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="13">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4791,17 +4846,17 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="56"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="64"/>
-      <c r="AI30" s="63"/>
+      <c r="AG30" s="66"/>
+      <c r="AI30" s="51"/>
       <c r="AJ30" s="5"/>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="13">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4830,17 +4885,17 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="56"/>
+      <c r="AC31" s="59"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="64"/>
-      <c r="AI31" s="63"/>
+      <c r="AG31" s="66"/>
+      <c r="AI31" s="51"/>
       <c r="AJ31" s="5"/>
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="13">
-        <v>44547</v>
+        <v>44549</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4869,17 +4924,17 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="56"/>
+      <c r="AC32" s="59"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="64"/>
-      <c r="AI32" s="63"/>
+      <c r="AG32" s="66"/>
+      <c r="AI32" s="51"/>
       <c r="AJ32" s="5"/>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="13">
-        <v>44548</v>
+        <v>44550</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -4908,17 +4963,17 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="56"/>
+      <c r="AC33" s="59"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="64"/>
-      <c r="AI33" s="63"/>
+      <c r="AG33" s="66"/>
+      <c r="AI33" s="51"/>
       <c r="AJ33" s="5"/>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="13">
-        <v>44549</v>
+        <v>44551</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4947,17 +5002,17 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="56"/>
+      <c r="AC34" s="59"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="64"/>
-      <c r="AI34" s="63"/>
+      <c r="AG34" s="66"/>
+      <c r="AI34" s="51"/>
       <c r="AJ34" s="5"/>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="13">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -4986,17 +5041,17 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="56"/>
+      <c r="AC35" s="59"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="64"/>
-      <c r="AI35" s="63"/>
+      <c r="AG35" s="66"/>
+      <c r="AI35" s="51"/>
       <c r="AJ35" s="5"/>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="13">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -5025,17 +5080,17 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="56"/>
+      <c r="AC36" s="59"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="64"/>
-      <c r="AI36" s="63"/>
+      <c r="AG36" s="66"/>
+      <c r="AI36" s="51"/>
       <c r="AJ36" s="5"/>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="13">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -5064,17 +5119,17 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="56"/>
+      <c r="AC37" s="59"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-      <c r="AG37" s="64"/>
-      <c r="AI37" s="63"/>
+      <c r="AG37" s="66"/>
+      <c r="AI37" s="51"/>
       <c r="AJ37" s="5"/>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="13">
-        <v>44553</v>
+        <v>44555</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -5103,17 +5158,17 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="56"/>
+      <c r="AC38" s="59"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="64"/>
-      <c r="AI38" s="63"/>
+      <c r="AG38" s="66"/>
+      <c r="AI38" s="51"/>
       <c r="AJ38" s="5"/>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="13">
-        <v>44554</v>
+        <v>44556</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -5142,17 +5197,17 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="56"/>
+      <c r="AC39" s="59"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="64"/>
-      <c r="AI39" s="63"/>
+      <c r="AG39" s="66"/>
+      <c r="AI39" s="51"/>
       <c r="AJ39" s="5"/>
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="13">
-        <v>44555</v>
+        <v>44557</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5181,17 +5236,17 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="56"/>
+      <c r="AC40" s="59"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="64"/>
-      <c r="AI40" s="63"/>
+      <c r="AG40" s="66"/>
+      <c r="AI40" s="51"/>
       <c r="AJ40" s="5"/>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="13">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -5220,17 +5275,17 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="56"/>
+      <c r="AC41" s="59"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="64"/>
-      <c r="AI41" s="63"/>
+      <c r="AG41" s="66"/>
+      <c r="AI41" s="51"/>
       <c r="AJ41" s="5"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" s="13">
-        <v>44557</v>
+        <v>44559</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -5259,17 +5314,17 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="59"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="64"/>
-      <c r="AI42" s="63"/>
+      <c r="AG42" s="66"/>
+      <c r="AI42" s="51"/>
       <c r="AJ42" s="5"/>
     </row>
     <row r="43" spans="1:36">
       <c r="A43" s="13">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -5298,17 +5353,17 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="56"/>
+      <c r="AC43" s="59"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="64"/>
-      <c r="AI43" s="63"/>
+      <c r="AG43" s="66"/>
+      <c r="AI43" s="51"/>
       <c r="AJ43" s="5"/>
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="13">
-        <v>44559</v>
+        <v>44561</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5337,17 +5392,17 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="56"/>
+      <c r="AC44" s="59"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-      <c r="AG44" s="64"/>
-      <c r="AI44" s="63"/>
+      <c r="AG44" s="66"/>
+      <c r="AI44" s="51"/>
       <c r="AJ44" s="5"/>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="13">
-        <v>44560</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -5376,17 +5431,17 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="56"/>
+      <c r="AC45" s="59"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-      <c r="AG45" s="64"/>
-      <c r="AI45" s="63"/>
+      <c r="AG45" s="66"/>
+      <c r="AI45" s="51"/>
       <c r="AJ45" s="5"/>
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="13">
-        <v>44561</v>
+        <v>44563</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -5415,17 +5470,17 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="56"/>
+      <c r="AC46" s="59"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-      <c r="AG46" s="64"/>
-      <c r="AI46" s="63"/>
+      <c r="AG46" s="66"/>
+      <c r="AI46" s="51"/>
       <c r="AJ46" s="5"/>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="13">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -5454,17 +5509,17 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="56"/>
+      <c r="AC47" s="59"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-      <c r="AG47" s="64"/>
-      <c r="AI47" s="63"/>
+      <c r="AG47" s="66"/>
+      <c r="AI47" s="51"/>
       <c r="AJ47" s="5"/>
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="13">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5493,17 +5548,17 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="56"/>
+      <c r="AC48" s="59"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-      <c r="AG48" s="64"/>
-      <c r="AI48" s="63"/>
+      <c r="AG48" s="66"/>
+      <c r="AI48" s="51"/>
       <c r="AJ48" s="5"/>
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="13">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -5532,17 +5587,17 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="56"/>
+      <c r="AC49" s="59"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-      <c r="AG49" s="64"/>
-      <c r="AI49" s="63"/>
+      <c r="AG49" s="66"/>
+      <c r="AI49" s="51"/>
       <c r="AJ49" s="5"/>
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="13">
-        <v>44565</v>
+        <v>44567</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -5571,17 +5626,17 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="56"/>
+      <c r="AC50" s="59"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-      <c r="AG50" s="64"/>
-      <c r="AI50" s="63"/>
+      <c r="AG50" s="66"/>
+      <c r="AI50" s="51"/>
       <c r="AJ50" s="5"/>
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="13">
-        <v>44566</v>
+        <v>44568</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -5610,17 +5665,17 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="56"/>
+      <c r="AC51" s="59"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-      <c r="AG51" s="64"/>
-      <c r="AI51" s="63"/>
+      <c r="AG51" s="66"/>
+      <c r="AI51" s="51"/>
       <c r="AJ51" s="5"/>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="13">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -5649,17 +5704,17 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="56"/>
+      <c r="AC52" s="59"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-      <c r="AG52" s="64"/>
-      <c r="AI52" s="63"/>
+      <c r="AG52" s="66"/>
+      <c r="AI52" s="51"/>
       <c r="AJ52" s="5"/>
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="13">
-        <v>44568</v>
+        <v>44570</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5688,17 +5743,17 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="56"/>
+      <c r="AC53" s="59"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-      <c r="AG53" s="64"/>
-      <c r="AI53" s="63"/>
+      <c r="AG53" s="66"/>
+      <c r="AI53" s="51"/>
       <c r="AJ53" s="5"/>
     </row>
     <row r="54" spans="1:36">
       <c r="A54" s="13">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -5727,17 +5782,17 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="56"/>
+      <c r="AC54" s="59"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-      <c r="AG54" s="64"/>
-      <c r="AI54" s="63"/>
+      <c r="AG54" s="66"/>
+      <c r="AI54" s="51"/>
       <c r="AJ54" s="5"/>
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="13">
-        <v>44570</v>
+        <v>44572</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5766,17 +5821,17 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
-      <c r="AC55" s="56"/>
+      <c r="AC55" s="59"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-      <c r="AG55" s="64"/>
-      <c r="AI55" s="63"/>
+      <c r="AG55" s="66"/>
+      <c r="AI55" s="51"/>
       <c r="AJ55" s="5"/>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="13">
-        <v>44571</v>
+        <v>44573</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -5805,17 +5860,17 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
-      <c r="AC56" s="56"/>
+      <c r="AC56" s="59"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-      <c r="AG56" s="64"/>
-      <c r="AI56" s="63"/>
+      <c r="AG56" s="66"/>
+      <c r="AI56" s="51"/>
       <c r="AJ56" s="5"/>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="13">
-        <v>44572</v>
+        <v>44574</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5844,17 +5899,17 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-      <c r="AC57" s="56"/>
+      <c r="AC57" s="59"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-      <c r="AG57" s="64"/>
-      <c r="AI57" s="63"/>
+      <c r="AG57" s="66"/>
+      <c r="AI57" s="51"/>
       <c r="AJ57" s="5"/>
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="13">
-        <v>44573</v>
+        <v>44575</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -5883,17 +5938,17 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
-      <c r="AC58" s="56"/>
+      <c r="AC58" s="59"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-      <c r="AG58" s="64"/>
-      <c r="AI58" s="63"/>
+      <c r="AG58" s="66"/>
+      <c r="AI58" s="51"/>
       <c r="AJ58" s="5"/>
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="13">
-        <v>44574</v>
+        <v>44576</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5922,17 +5977,17 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
-      <c r="AC59" s="56"/>
+      <c r="AC59" s="59"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-      <c r="AG59" s="64"/>
-      <c r="AI59" s="63"/>
+      <c r="AG59" s="66"/>
+      <c r="AI59" s="51"/>
       <c r="AJ59" s="5"/>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="13">
-        <v>44575</v>
+        <v>44577</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -5961,17 +6016,17 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
-      <c r="AC60" s="56"/>
+      <c r="AC60" s="59"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-      <c r="AG60" s="64"/>
-      <c r="AI60" s="63"/>
+      <c r="AG60" s="66"/>
+      <c r="AI60" s="51"/>
       <c r="AJ60" s="5"/>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="13">
-        <v>44576</v>
+        <v>44578</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -6000,17 +6055,17 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="56"/>
+      <c r="AC61" s="59"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-      <c r="AG61" s="64"/>
-      <c r="AI61" s="63"/>
+      <c r="AG61" s="66"/>
+      <c r="AI61" s="51"/>
       <c r="AJ61" s="5"/>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="13">
-        <v>44577</v>
+        <v>44579</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -6039,17 +6094,17 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="56"/>
+      <c r="AC62" s="59"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-      <c r="AG62" s="64"/>
-      <c r="AI62" s="63"/>
+      <c r="AG62" s="66"/>
+      <c r="AI62" s="51"/>
       <c r="AJ62" s="5"/>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="13">
-        <v>44578</v>
+        <v>44580</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -6078,17 +6133,17 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="56"/>
+      <c r="AC63" s="59"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-      <c r="AG63" s="64"/>
-      <c r="AI63" s="63"/>
+      <c r="AG63" s="66"/>
+      <c r="AI63" s="51"/>
       <c r="AJ63" s="5"/>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="13">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -6117,17 +6172,17 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="56"/>
+      <c r="AC64" s="59"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-      <c r="AG64" s="64"/>
-      <c r="AI64" s="63"/>
+      <c r="AG64" s="66"/>
+      <c r="AI64" s="51"/>
       <c r="AJ64" s="5"/>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="13">
-        <v>44580</v>
+        <v>44582</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6156,17 +6211,17 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="56"/>
+      <c r="AC65" s="59"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-      <c r="AG65" s="64"/>
-      <c r="AI65" s="63"/>
+      <c r="AG65" s="66"/>
+      <c r="AI65" s="51"/>
       <c r="AJ65" s="5"/>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="13">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -6195,17 +6250,17 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="56"/>
+      <c r="AC66" s="59"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-      <c r="AG66" s="64"/>
-      <c r="AI66" s="63"/>
+      <c r="AG66" s="66"/>
+      <c r="AI66" s="51"/>
       <c r="AJ66" s="5"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="13">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -6234,17 +6289,17 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="56"/>
+      <c r="AC67" s="59"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-      <c r="AG67" s="64"/>
-      <c r="AI67" s="63"/>
+      <c r="AG67" s="66"/>
+      <c r="AI67" s="51"/>
       <c r="AJ67" s="5"/>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="13">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -6273,17 +6328,17 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="56"/>
+      <c r="AC68" s="59"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-      <c r="AG68" s="64"/>
-      <c r="AI68" s="63"/>
+      <c r="AG68" s="66"/>
+      <c r="AI68" s="51"/>
       <c r="AJ68" s="5"/>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="13">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -6312,17 +6367,17 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
-      <c r="AC69" s="56"/>
+      <c r="AC69" s="59"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-      <c r="AG69" s="64"/>
-      <c r="AI69" s="63"/>
+      <c r="AG69" s="66"/>
+      <c r="AI69" s="51"/>
       <c r="AJ69" s="5"/>
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="13">
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -6351,17 +6406,17 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
-      <c r="AC70" s="56"/>
+      <c r="AC70" s="59"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-      <c r="AG70" s="64"/>
-      <c r="AI70" s="63"/>
+      <c r="AG70" s="66"/>
+      <c r="AI70" s="51"/>
       <c r="AJ70" s="5"/>
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="13">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6390,17 +6445,17 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
-      <c r="AC71" s="56"/>
+      <c r="AC71" s="59"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-      <c r="AG71" s="64"/>
-      <c r="AI71" s="63"/>
+      <c r="AG71" s="66"/>
+      <c r="AI71" s="51"/>
       <c r="AJ71" s="5"/>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="13">
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -6429,17 +6484,17 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
-      <c r="AC72" s="56"/>
+      <c r="AC72" s="59"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-      <c r="AG72" s="64"/>
-      <c r="AI72" s="63"/>
+      <c r="AG72" s="66"/>
+      <c r="AI72" s="51"/>
       <c r="AJ72" s="5"/>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="13">
-        <v>44588</v>
+        <v>44590</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -6468,17 +6523,17 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
-      <c r="AC73" s="56"/>
+      <c r="AC73" s="59"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-      <c r="AG73" s="64"/>
-      <c r="AI73" s="63"/>
+      <c r="AG73" s="66"/>
+      <c r="AI73" s="51"/>
       <c r="AJ73" s="5"/>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="13">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6507,17 +6562,17 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
-      <c r="AC74" s="56"/>
+      <c r="AC74" s="59"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-      <c r="AG74" s="64"/>
-      <c r="AI74" s="63"/>
+      <c r="AG74" s="66"/>
+      <c r="AI74" s="51"/>
       <c r="AJ74" s="5"/>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="13">
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -6546,17 +6601,17 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
-      <c r="AC75" s="56"/>
+      <c r="AC75" s="59"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="64"/>
-      <c r="AI75" s="63"/>
+      <c r="AG75" s="66"/>
+      <c r="AI75" s="51"/>
       <c r="AJ75" s="5"/>
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="13">
-        <v>44591</v>
+        <v>44593</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6585,17 +6640,17 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
-      <c r="AC76" s="56"/>
+      <c r="AC76" s="59"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-      <c r="AG76" s="64"/>
-      <c r="AI76" s="63"/>
+      <c r="AG76" s="66"/>
+      <c r="AI76" s="51"/>
       <c r="AJ76" s="5"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="13">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -6624,17 +6679,17 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
-      <c r="AC77" s="56"/>
+      <c r="AC77" s="59"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-      <c r="AG77" s="64"/>
-      <c r="AI77" s="63"/>
+      <c r="AG77" s="66"/>
+      <c r="AI77" s="51"/>
       <c r="AJ77" s="5"/>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="13">
-        <v>44593</v>
+        <v>44595</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -6663,17 +6718,17 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
-      <c r="AC78" s="56"/>
+      <c r="AC78" s="59"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-      <c r="AG78" s="64"/>
-      <c r="AI78" s="63"/>
+      <c r="AG78" s="66"/>
+      <c r="AI78" s="51"/>
       <c r="AJ78" s="5"/>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="13">
-        <v>44594</v>
+        <v>44596</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -6702,17 +6757,17 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
-      <c r="AC79" s="56"/>
+      <c r="AC79" s="59"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-      <c r="AG79" s="64"/>
-      <c r="AI79" s="63"/>
+      <c r="AG79" s="66"/>
+      <c r="AI79" s="51"/>
       <c r="AJ79" s="5"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="13">
-        <v>44595</v>
+        <v>44597</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -6741,17 +6796,17 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
-      <c r="AC80" s="56"/>
+      <c r="AC80" s="59"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-      <c r="AG80" s="64"/>
-      <c r="AI80" s="63"/>
+      <c r="AG80" s="66"/>
+      <c r="AI80" s="51"/>
       <c r="AJ80" s="5"/>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="13">
-        <v>44596</v>
+        <v>44598</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -6780,17 +6835,17 @@
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
-      <c r="AC81" s="56"/>
+      <c r="AC81" s="59"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-      <c r="AG81" s="64"/>
-      <c r="AI81" s="63"/>
+      <c r="AG81" s="66"/>
+      <c r="AI81" s="51"/>
       <c r="AJ81" s="5"/>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="13">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -6819,17 +6874,17 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
-      <c r="AC82" s="56"/>
+      <c r="AC82" s="59"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-      <c r="AG82" s="64"/>
-      <c r="AI82" s="63"/>
+      <c r="AG82" s="66"/>
+      <c r="AI82" s="51"/>
       <c r="AJ82" s="5"/>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="13">
-        <v>44598</v>
+        <v>44600</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -6858,17 +6913,17 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
-      <c r="AC83" s="56"/>
+      <c r="AC83" s="59"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-      <c r="AG83" s="64"/>
-      <c r="AI83" s="63"/>
+      <c r="AG83" s="66"/>
+      <c r="AI83" s="51"/>
       <c r="AJ83" s="5"/>
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="13">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -6897,17 +6952,17 @@
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
-      <c r="AC84" s="56"/>
+      <c r="AC84" s="59"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-      <c r="AG84" s="64"/>
-      <c r="AI84" s="63"/>
+      <c r="AG84" s="66"/>
+      <c r="AI84" s="51"/>
       <c r="AJ84" s="5"/>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="13">
-        <v>44600</v>
+        <v>44602</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -6936,17 +6991,17 @@
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
-      <c r="AC85" s="56"/>
+      <c r="AC85" s="59"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-      <c r="AG85" s="64"/>
-      <c r="AI85" s="63"/>
+      <c r="AG85" s="66"/>
+      <c r="AI85" s="51"/>
       <c r="AJ85" s="5"/>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="13">
-        <v>44601</v>
+        <v>44603</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -6975,17 +7030,17 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
-      <c r="AC86" s="56"/>
+      <c r="AC86" s="59"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-      <c r="AG86" s="64"/>
-      <c r="AI86" s="63"/>
+      <c r="AG86" s="66"/>
+      <c r="AI86" s="51"/>
       <c r="AJ86" s="5"/>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="13">
-        <v>44602</v>
+        <v>44604</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -7014,17 +7069,17 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
-      <c r="AC87" s="56"/>
+      <c r="AC87" s="59"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-      <c r="AG87" s="64"/>
-      <c r="AI87" s="63"/>
+      <c r="AG87" s="66"/>
+      <c r="AI87" s="51"/>
       <c r="AJ87" s="5"/>
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="13">
-        <v>44603</v>
+        <v>44605</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -7053,17 +7108,17 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
-      <c r="AC88" s="56"/>
+      <c r="AC88" s="59"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-      <c r="AG88" s="64"/>
-      <c r="AI88" s="63"/>
+      <c r="AG88" s="66"/>
+      <c r="AI88" s="51"/>
       <c r="AJ88" s="5"/>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="13">
-        <v>44604</v>
+        <v>44606</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -7092,17 +7147,17 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
-      <c r="AC89" s="56"/>
+      <c r="AC89" s="59"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-      <c r="AG89" s="64"/>
-      <c r="AI89" s="63"/>
+      <c r="AG89" s="66"/>
+      <c r="AI89" s="51"/>
       <c r="AJ89" s="5"/>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="13">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -7131,17 +7186,17 @@
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
-      <c r="AC90" s="56"/>
+      <c r="AC90" s="59"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-      <c r="AG90" s="64"/>
-      <c r="AI90" s="63"/>
+      <c r="AG90" s="66"/>
+      <c r="AI90" s="51"/>
       <c r="AJ90" s="5"/>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="13">
-        <v>44606</v>
+        <v>44608</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7170,17 +7225,17 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
-      <c r="AC91" s="56"/>
+      <c r="AC91" s="59"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-      <c r="AG91" s="64"/>
-      <c r="AI91" s="63"/>
+      <c r="AG91" s="66"/>
+      <c r="AI91" s="51"/>
       <c r="AJ91" s="5"/>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="13">
-        <v>44607</v>
+        <v>44609</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7209,17 +7264,17 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
-      <c r="AC92" s="56"/>
+      <c r="AC92" s="59"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-      <c r="AG92" s="64"/>
-      <c r="AI92" s="63"/>
+      <c r="AG92" s="66"/>
+      <c r="AI92" s="51"/>
       <c r="AJ92" s="5"/>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="13">
-        <v>44608</v>
+        <v>44610</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7248,17 +7303,17 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
-      <c r="AC93" s="56"/>
+      <c r="AC93" s="59"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-      <c r="AG93" s="64"/>
-      <c r="AI93" s="63"/>
+      <c r="AG93" s="66"/>
+      <c r="AI93" s="51"/>
       <c r="AJ93" s="5"/>
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="13">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -7287,17 +7342,17 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
-      <c r="AC94" s="56"/>
+      <c r="AC94" s="59"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-      <c r="AG94" s="64"/>
-      <c r="AI94" s="63"/>
+      <c r="AG94" s="66"/>
+      <c r="AI94" s="51"/>
       <c r="AJ94" s="5"/>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="13">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -7326,17 +7381,17 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
-      <c r="AC95" s="56"/>
+      <c r="AC95" s="59"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-      <c r="AG95" s="64"/>
-      <c r="AI95" s="63"/>
+      <c r="AG95" s="66"/>
+      <c r="AI95" s="51"/>
       <c r="AJ95" s="5"/>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="13">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -7365,17 +7420,17 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
-      <c r="AC96" s="56"/>
+      <c r="AC96" s="59"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-      <c r="AG96" s="64"/>
-      <c r="AI96" s="63"/>
+      <c r="AG96" s="66"/>
+      <c r="AI96" s="51"/>
       <c r="AJ96" s="5"/>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="13">
-        <v>44612</v>
+        <v>44614</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -7404,17 +7459,17 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
-      <c r="AC97" s="56"/>
+      <c r="AC97" s="59"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-      <c r="AG97" s="64"/>
-      <c r="AI97" s="63"/>
+      <c r="AG97" s="66"/>
+      <c r="AI97" s="51"/>
       <c r="AJ97" s="5"/>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="13">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7443,17 +7498,17 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
-      <c r="AC98" s="56"/>
+      <c r="AC98" s="59"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
-      <c r="AG98" s="64"/>
-      <c r="AI98" s="63"/>
+      <c r="AG98" s="66"/>
+      <c r="AI98" s="51"/>
       <c r="AJ98" s="5"/>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="13">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7482,17 +7537,17 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
-      <c r="AC99" s="56"/>
+      <c r="AC99" s="59"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
-      <c r="AG99" s="64"/>
-      <c r="AI99" s="63"/>
+      <c r="AG99" s="66"/>
+      <c r="AI99" s="51"/>
       <c r="AJ99" s="5"/>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="13">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -7521,17 +7576,17 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
-      <c r="AC100" s="56"/>
+      <c r="AC100" s="59"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
-      <c r="AG100" s="64"/>
-      <c r="AI100" s="63"/>
+      <c r="AG100" s="66"/>
+      <c r="AI100" s="51"/>
       <c r="AJ100" s="5"/>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="13">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -7560,17 +7615,17 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
-      <c r="AC101" s="56"/>
+      <c r="AC101" s="59"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
-      <c r="AG101" s="64"/>
-      <c r="AI101" s="63"/>
+      <c r="AG101" s="66"/>
+      <c r="AI101" s="51"/>
       <c r="AJ101" s="5"/>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="13">
-        <v>44617</v>
+        <v>44619</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -7599,17 +7654,17 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
-      <c r="AC102" s="56"/>
+      <c r="AC102" s="59"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
-      <c r="AG102" s="64"/>
-      <c r="AI102" s="63"/>
+      <c r="AG102" s="66"/>
+      <c r="AI102" s="51"/>
       <c r="AJ102" s="5"/>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="13">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -7638,17 +7693,17 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
-      <c r="AC103" s="56"/>
+      <c r="AC103" s="59"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
-      <c r="AG103" s="64"/>
-      <c r="AI103" s="63"/>
+      <c r="AG103" s="66"/>
+      <c r="AI103" s="51"/>
       <c r="AJ103" s="5"/>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="13">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -7677,17 +7732,17 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
-      <c r="AC104" s="56"/>
+      <c r="AC104" s="59"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
-      <c r="AG104" s="64"/>
-      <c r="AI104" s="63"/>
+      <c r="AG104" s="66"/>
+      <c r="AI104" s="51"/>
       <c r="AJ104" s="5"/>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="13">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -7716,17 +7771,17 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
-      <c r="AC105" s="56"/>
+      <c r="AC105" s="59"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
-      <c r="AG105" s="64"/>
-      <c r="AI105" s="63"/>
+      <c r="AG105" s="66"/>
+      <c r="AI105" s="51"/>
       <c r="AJ105" s="5"/>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="13">
-        <v>44621</v>
+        <v>44623</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -7755,17 +7810,17 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
-      <c r="AC106" s="56"/>
+      <c r="AC106" s="59"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
-      <c r="AG106" s="64"/>
-      <c r="AI106" s="63"/>
+      <c r="AG106" s="66"/>
+      <c r="AI106" s="51"/>
       <c r="AJ106" s="5"/>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="13">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -7794,17 +7849,17 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
-      <c r="AC107" s="56"/>
+      <c r="AC107" s="59"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
-      <c r="AG107" s="64"/>
-      <c r="AI107" s="63"/>
+      <c r="AG107" s="66"/>
+      <c r="AI107" s="51"/>
       <c r="AJ107" s="5"/>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="13">
-        <v>44623</v>
+        <v>44625</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -7833,17 +7888,17 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
-      <c r="AC108" s="56"/>
+      <c r="AC108" s="59"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
-      <c r="AG108" s="64"/>
-      <c r="AI108" s="63"/>
+      <c r="AG108" s="66"/>
+      <c r="AI108" s="51"/>
       <c r="AJ108" s="5"/>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="13">
-        <v>44624</v>
+        <v>44626</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -7872,17 +7927,17 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
-      <c r="AC109" s="56"/>
+      <c r="AC109" s="59"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
-      <c r="AG109" s="64"/>
-      <c r="AI109" s="63"/>
+      <c r="AG109" s="66"/>
+      <c r="AI109" s="51"/>
       <c r="AJ109" s="5"/>
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="13">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -7911,17 +7966,17 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
-      <c r="AC110" s="56"/>
+      <c r="AC110" s="59"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
-      <c r="AG110" s="64"/>
-      <c r="AI110" s="63"/>
+      <c r="AG110" s="66"/>
+      <c r="AI110" s="51"/>
       <c r="AJ110" s="5"/>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="13">
-        <v>44626</v>
+        <v>44628</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -7950,17 +8005,17 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
-      <c r="AC111" s="56"/>
+      <c r="AC111" s="59"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
-      <c r="AG111" s="64"/>
-      <c r="AI111" s="63"/>
+      <c r="AG111" s="66"/>
+      <c r="AI111" s="51"/>
       <c r="AJ111" s="5"/>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="13">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7989,17 +8044,17 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
-      <c r="AC112" s="56"/>
+      <c r="AC112" s="59"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
-      <c r="AG112" s="64"/>
-      <c r="AI112" s="63"/>
+      <c r="AG112" s="66"/>
+      <c r="AI112" s="51"/>
       <c r="AJ112" s="5"/>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="13">
-        <v>44628</v>
+        <v>44630</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -8028,17 +8083,17 @@
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
-      <c r="AC113" s="56"/>
+      <c r="AC113" s="59"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
-      <c r="AG113" s="64"/>
-      <c r="AI113" s="63"/>
+      <c r="AG113" s="66"/>
+      <c r="AI113" s="51"/>
       <c r="AJ113" s="5"/>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="13">
-        <v>44629</v>
+        <v>44631</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -8067,17 +8122,17 @@
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
-      <c r="AC114" s="56"/>
+      <c r="AC114" s="59"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
-      <c r="AG114" s="64"/>
-      <c r="AI114" s="63"/>
+      <c r="AG114" s="66"/>
+      <c r="AI114" s="51"/>
       <c r="AJ114" s="5"/>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="13">
-        <v>44630</v>
+        <v>44632</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -8106,17 +8161,17 @@
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
-      <c r="AC115" s="56"/>
+      <c r="AC115" s="59"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
-      <c r="AG115" s="64"/>
-      <c r="AI115" s="63"/>
+      <c r="AG115" s="66"/>
+      <c r="AI115" s="51"/>
       <c r="AJ115" s="5"/>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="13">
-        <v>44631</v>
+        <v>44633</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -8145,17 +8200,17 @@
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
-      <c r="AC116" s="56"/>
+      <c r="AC116" s="59"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
-      <c r="AG116" s="64"/>
-      <c r="AI116" s="63"/>
+      <c r="AG116" s="66"/>
+      <c r="AI116" s="51"/>
       <c r="AJ116" s="5"/>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="13">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -8184,17 +8239,17 @@
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
-      <c r="AC117" s="56"/>
+      <c r="AC117" s="59"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
-      <c r="AG117" s="64"/>
-      <c r="AI117" s="63"/>
+      <c r="AG117" s="66"/>
+      <c r="AI117" s="51"/>
       <c r="AJ117" s="5"/>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="13">
-        <v>44633</v>
+        <v>44635</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -8223,17 +8278,17 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
-      <c r="AC118" s="56"/>
+      <c r="AC118" s="59"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
-      <c r="AG118" s="64"/>
-      <c r="AI118" s="63"/>
+      <c r="AG118" s="66"/>
+      <c r="AI118" s="51"/>
       <c r="AJ118" s="5"/>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="13">
-        <v>44634</v>
+        <v>44636</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -8262,17 +8317,17 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
-      <c r="AC119" s="56"/>
+      <c r="AC119" s="59"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
-      <c r="AG119" s="64"/>
-      <c r="AI119" s="63"/>
+      <c r="AG119" s="66"/>
+      <c r="AI119" s="51"/>
       <c r="AJ119" s="5"/>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="13">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -8301,17 +8356,17 @@
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
-      <c r="AC120" s="56"/>
+      <c r="AC120" s="59"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
-      <c r="AG120" s="64"/>
-      <c r="AI120" s="63"/>
+      <c r="AG120" s="66"/>
+      <c r="AI120" s="51"/>
       <c r="AJ120" s="5"/>
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="13">
-        <v>44636</v>
+        <v>44638</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -8340,17 +8395,17 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
-      <c r="AC121" s="56"/>
+      <c r="AC121" s="59"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
-      <c r="AG121" s="64"/>
-      <c r="AI121" s="63"/>
+      <c r="AG121" s="66"/>
+      <c r="AI121" s="51"/>
       <c r="AJ121" s="5"/>
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="13">
-        <v>44637</v>
+        <v>44639</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -8379,17 +8434,17 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
-      <c r="AC122" s="56"/>
+      <c r="AC122" s="59"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
-      <c r="AG122" s="64"/>
-      <c r="AI122" s="63"/>
+      <c r="AG122" s="66"/>
+      <c r="AI122" s="51"/>
       <c r="AJ122" s="5"/>
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="13">
-        <v>44638</v>
+        <v>44640</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -8418,17 +8473,17 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
-      <c r="AC123" s="56"/>
+      <c r="AC123" s="59"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
-      <c r="AG123" s="64"/>
-      <c r="AI123" s="63"/>
+      <c r="AG123" s="66"/>
+      <c r="AI123" s="51"/>
       <c r="AJ123" s="5"/>
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="13">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -8457,17 +8512,17 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
-      <c r="AC124" s="56"/>
+      <c r="AC124" s="59"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
-      <c r="AG124" s="64"/>
-      <c r="AI124" s="63"/>
+      <c r="AG124" s="66"/>
+      <c r="AI124" s="51"/>
       <c r="AJ124" s="5"/>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="13">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -8496,17 +8551,17 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
-      <c r="AC125" s="56"/>
+      <c r="AC125" s="59"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
-      <c r="AG125" s="64"/>
-      <c r="AI125" s="63"/>
+      <c r="AG125" s="66"/>
+      <c r="AI125" s="51"/>
       <c r="AJ125" s="5"/>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="13">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -8535,17 +8590,17 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
-      <c r="AC126" s="56"/>
+      <c r="AC126" s="59"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
-      <c r="AG126" s="64"/>
-      <c r="AI126" s="63"/>
+      <c r="AG126" s="66"/>
+      <c r="AI126" s="51"/>
       <c r="AJ126" s="5"/>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="13">
-        <v>44642</v>
+        <v>44644</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -8574,17 +8629,17 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
-      <c r="AC127" s="56"/>
+      <c r="AC127" s="59"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
-      <c r="AG127" s="64"/>
-      <c r="AI127" s="63"/>
+      <c r="AG127" s="66"/>
+      <c r="AI127" s="51"/>
       <c r="AJ127" s="5"/>
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="13">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -8613,17 +8668,17 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
-      <c r="AC128" s="56"/>
+      <c r="AC128" s="59"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
-      <c r="AG128" s="64"/>
-      <c r="AI128" s="63"/>
+      <c r="AG128" s="66"/>
+      <c r="AI128" s="51"/>
       <c r="AJ128" s="5"/>
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="13">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -8652,17 +8707,17 @@
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
-      <c r="AC129" s="56"/>
+      <c r="AC129" s="59"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
-      <c r="AG129" s="64"/>
-      <c r="AI129" s="63"/>
+      <c r="AG129" s="66"/>
+      <c r="AI129" s="51"/>
       <c r="AJ129" s="5"/>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="13">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -8691,17 +8746,17 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
-      <c r="AC130" s="56"/>
+      <c r="AC130" s="59"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
-      <c r="AG130" s="64"/>
-      <c r="AI130" s="63"/>
+      <c r="AG130" s="66"/>
+      <c r="AI130" s="51"/>
       <c r="AJ130" s="5"/>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="13">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -8730,17 +8785,17 @@
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
       <c r="AB131" s="5"/>
-      <c r="AC131" s="56"/>
+      <c r="AC131" s="59"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
-      <c r="AG131" s="64"/>
-      <c r="AI131" s="63"/>
+      <c r="AG131" s="66"/>
+      <c r="AI131" s="51"/>
       <c r="AJ131" s="5"/>
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="13">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -8769,93 +8824,46 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
-      <c r="AC132" s="56"/>
+      <c r="AC132" s="59"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
-      <c r="AG132" s="64"/>
-      <c r="AI132" s="63"/>
+      <c r="AG132" s="66"/>
+      <c r="AI132" s="51"/>
       <c r="AJ132" s="5"/>
     </row>
-    <row r="133" spans="1:36">
-      <c r="A133" s="13">
-        <v>44648</v>
-      </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="25"/>
-      <c r="P133" s="25"/>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="25"/>
-      <c r="S133" s="25"/>
-      <c r="T133" s="25"/>
-      <c r="U133" s="25"/>
-      <c r="V133" s="25"/>
-      <c r="W133" s="25"/>
-      <c r="X133" s="25"/>
-      <c r="Y133" s="25"/>
-      <c r="Z133" s="5"/>
-      <c r="AA133" s="5"/>
-      <c r="AB133" s="5"/>
-      <c r="AC133" s="56"/>
-      <c r="AD133" s="5"/>
-      <c r="AE133" s="5"/>
-      <c r="AF133" s="5"/>
-      <c r="AG133" s="64"/>
-      <c r="AI133" s="63"/>
-      <c r="AJ133" s="5"/>
-    </row>
-    <row r="134" spans="1:36">
-      <c r="A134" s="13">
-        <v>44649</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="25"/>
-      <c r="Q134" s="25"/>
-      <c r="R134" s="25"/>
-      <c r="S134" s="25"/>
-      <c r="T134" s="25"/>
-      <c r="U134" s="25"/>
-      <c r="V134" s="25"/>
-      <c r="W134" s="25"/>
-      <c r="X134" s="25"/>
-      <c r="Y134" s="25"/>
-      <c r="Z134" s="5"/>
-      <c r="AA134" s="5"/>
-      <c r="AB134" s="5"/>
-      <c r="AC134" s="56"/>
-      <c r="AD134" s="5"/>
-      <c r="AE134" s="5"/>
-      <c r="AF134" s="5"/>
-      <c r="AG134" s="64"/>
-      <c r="AI134" s="63"/>
-      <c r="AJ134" s="5"/>
-    </row>
-    <row r="135" spans="1:34">
+    <row r="133" spans="1:34">
+      <c r="A133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="AH133" s="67"/>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="Y134" s="3"/>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -8869,7 +8877,6 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
       <c r="Y135" s="3"/>
-      <c r="AH135" s="65"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="3"/>
@@ -14390,36 +14397,6 @@
       <c r="S503" s="3"/>
       <c r="T503" s="3"/>
       <c r="Y503" s="3"/>
-    </row>
-    <row r="504" spans="1:25">
-      <c r="A504" s="3"/>
-      <c r="J504" s="3"/>
-      <c r="K504" s="3"/>
-      <c r="L504" s="3"/>
-      <c r="M504" s="3"/>
-      <c r="N504" s="3"/>
-      <c r="O504" s="3"/>
-      <c r="P504" s="3"/>
-      <c r="Q504" s="3"/>
-      <c r="R504" s="3"/>
-      <c r="S504" s="3"/>
-      <c r="T504" s="3"/>
-      <c r="Y504" s="3"/>
-    </row>
-    <row r="505" spans="1:25">
-      <c r="A505" s="3"/>
-      <c r="J505" s="3"/>
-      <c r="K505" s="3"/>
-      <c r="L505" s="3"/>
-      <c r="M505" s="3"/>
-      <c r="N505" s="3"/>
-      <c r="O505" s="3"/>
-      <c r="P505" s="3"/>
-      <c r="Q505" s="3"/>
-      <c r="R505" s="3"/>
-      <c r="S505" s="3"/>
-      <c r="T505" s="3"/>
-      <c r="Y505" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -35,14 +35,17 @@
     <t>止盈卖出指标</t>
   </si>
   <si>
+    <t>买入后跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+  </si>
+  <si>
+    <t>是否可以提高止损线到盈亏平衡点</t>
+  </si>
+  <si>
     <t>止损线</t>
   </si>
   <si>
     <t>盈利金额</t>
-  </si>
-  <si>
-    <t>买入后跌幅/涨幅
-(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>是否继续持有
@@ -243,14 +246,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -300,7 +303,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +323,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -322,15 +361,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,32 +391,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,8 +415,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,50 +441,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +515,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,31 +599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,55 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,37 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,17 +741,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,32 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +792,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,152 +840,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,7 +1130,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,7 +1142,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,20 +1172,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3315,14 +3324,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ503"/>
+  <dimension ref="A1:AL503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3355,13 +3364,15 @@
     <col min="30" max="30" width="26.4821428571429" customWidth="1"/>
     <col min="31" max="31" width="24.5446428571429" customWidth="1"/>
     <col min="32" max="32" width="18.75" customWidth="1"/>
-    <col min="33" max="33" width="10.5625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="11" style="5" customWidth="1"/>
-    <col min="35" max="35" width="23.5089285714286" style="6" customWidth="1"/>
-    <col min="36" max="36" width="15.4732142857143" customWidth="1"/>
+    <col min="33" max="33" width="18.75" customWidth="1"/>
+    <col min="34" max="34" width="15.4732142857143" customWidth="1"/>
+    <col min="35" max="35" width="10.5625" style="4" customWidth="1"/>
+    <col min="36" max="36" width="11" style="5" customWidth="1"/>
+    <col min="37" max="37" width="23.5089285714286" style="6" customWidth="1"/>
+    <col min="38" max="38" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:36">
+    <row r="1" ht="29" customHeight="1" spans="1:38">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3404,20 +3415,26 @@
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
       <c r="AF1" s="36"/>
-      <c r="AG1" s="60" t="s">
+      <c r="AG1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="61" t="s">
+      <c r="AH1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="62" t="s">
+      <c r="AJ1" s="61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:36">
+      <c r="AK1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:38">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3450,69 +3467,71 @@
       <c r="AD2" s="36"/>
       <c r="AE2" s="36"/>
       <c r="AF2" s="36"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="21"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:36">
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="21"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:38">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
       <c r="X3" s="38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
@@ -3521,15 +3540,17 @@
       <c r="AC3" s="54"/>
       <c r="AD3" s="38"/>
       <c r="AE3" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="26"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="21"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:36">
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="21"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:38">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3551,45 +3572,47 @@
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W4" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="46"/>
       <c r="AB4" s="47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="21"/>
-    </row>
-    <row r="5" ht="71" spans="1:36">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="21"/>
+    </row>
+    <row r="5" ht="71" spans="1:38">
       <c r="A5" s="7"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3604,25 +3627,25 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="21" t="s">
-        <v>38</v>
-      </c>
       <c r="Q5" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
@@ -3630,22 +3653,24 @@
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="46"/>
       <c r="AC5" s="54"/>
       <c r="AD5" s="38"/>
       <c r="AE5" s="26"/>
       <c r="AF5" s="57"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="21"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="18" spans="1:36">
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18" spans="1:38">
       <c r="A6" s="10">
         <v>44521</v>
       </c>
@@ -3678,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -3696,7 +3721,7 @@
       <c r="V6" s="42"/>
       <c r="W6" s="42"/>
       <c r="X6" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="48">
         <f>$I6/$I$6</f>
@@ -3712,22 +3737,30 @@
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="58"/>
-      <c r="AG6" s="64">
-        <v>35.6</v>
-      </c>
-      <c r="AH6" s="65">
-        <f>(AG6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,7,FALSE)</f>
-        <v>-350</v>
-      </c>
-      <c r="AI6" s="51">
+      <c r="AG6" s="51">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE)</f>
         <v>0.0398976982097185</v>
       </c>
-      <c r="AJ6" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="18" spans="1:36">
+      <c r="AH6" s="63" t="str">
+        <f>IF(AG6-((VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI6" s="64">
+        <v>35.6</v>
+      </c>
+      <c r="AJ6" s="65">
+        <f>(AI6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AK6" s="51">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10003,6,FALSE)</f>
+        <v>0.0398976982097185</v>
+      </c>
+      <c r="AL6" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18" spans="1:38">
       <c r="A7" s="10">
         <v>44522</v>
       </c>
@@ -3779,7 +3812,7 @@
       <c r="V7" s="42"/>
       <c r="W7" s="42"/>
       <c r="X7" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="48">
         <f>$I7/$I$6</f>
@@ -3795,23 +3828,31 @@
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="58"/>
-      <c r="AG7" s="64">
-        <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AG6)</f>
-        <v>35.6</v>
-      </c>
-      <c r="AH7" s="65">
-        <f>(AG7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,7,FALSE)</f>
-        <v>-350</v>
-      </c>
-      <c r="AI7" s="51">
+      <c r="AG7" s="51">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>0.0734015345268541</v>
       </c>
-      <c r="AJ7" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:36">
+      <c r="AH7" s="63" t="str">
+        <f>IF(AG7-((VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI7" s="64">
+        <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AI6)</f>
+        <v>35.6</v>
+      </c>
+      <c r="AJ7" s="65">
+        <f>(AI7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AK7" s="51">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <v>0.0734015345268541</v>
+      </c>
+      <c r="AL7" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:38">
       <c r="A8" s="10">
         <v>44523</v>
       </c>
@@ -3848,7 +3889,7 @@
         <v>0.0459852275434834</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
@@ -3865,7 +3906,7 @@
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
       <c r="X8" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="48">
         <f>$I8/$I$6</f>
@@ -3881,23 +3922,31 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="64">
-        <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AG7)</f>
-        <v>35.6</v>
-      </c>
-      <c r="AH8" s="65">
-        <f>(AG8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
-        <v>-350</v>
-      </c>
-      <c r="AI8" s="51">
+      <c r="AG8" s="51">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.122762148337596</v>
       </c>
-      <c r="AJ8" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" ht="18" spans="1:36">
+      <c r="AH8" s="63" t="str">
+        <f>IF(AG8-((VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI8" s="64">
+        <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AI7)</f>
+        <v>35.6</v>
+      </c>
+      <c r="AJ8" s="65">
+        <f>(AI8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AK8" s="51">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>0.122762148337596</v>
+      </c>
+      <c r="AL8" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:38">
       <c r="A9" s="13">
         <v>44524</v>
       </c>
@@ -3949,7 +3998,7 @@
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
       <c r="X9" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y9" s="48">
         <f>$I9/$I$6</f>
@@ -3965,23 +4014,31 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="64">
-        <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AG8)</f>
-        <v>35.6</v>
-      </c>
-      <c r="AH9" s="65">
-        <f>(AG9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
-        <v>-350</v>
-      </c>
-      <c r="AI9" s="51">
+      <c r="AG9" s="51">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.109462915601023</v>
       </c>
-      <c r="AJ9" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:36">
+      <c r="AH9" s="63" t="str">
+        <f>IF(AG9-((VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10008,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI9" s="64">
+        <f>IF(AND(H9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,H9&gt;H8),H9,AI8)</f>
+        <v>35.6</v>
+      </c>
+      <c r="AJ9" s="65">
+        <f>(AI9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AK9" s="51">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>0.109462915601023</v>
+      </c>
+      <c r="AL9" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:38">
       <c r="A10" s="13">
         <v>44527</v>
       </c>
@@ -4039,7 +4096,7 @@
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
       <c r="X10" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y10" s="48">
         <f>$I10/$I$6</f>
@@ -4058,23 +4115,31 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="64">
-        <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AG9)</f>
-        <v>35.6</v>
-      </c>
-      <c r="AH10" s="65">
-        <f>(AG10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
-        <v>-350</v>
-      </c>
-      <c r="AI10" s="51">
+      <c r="AG10" s="51">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.0813299232736573</v>
       </c>
-      <c r="AJ10" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AH10" s="63" t="str">
+        <f>IF(AG10-((VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10009,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="AI10" s="64">
+        <f>IF(AND(H10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,H10&gt;H9),H10,AI9)</f>
+        <v>35.6</v>
+      </c>
+      <c r="AJ10" s="65">
+        <f>(AI10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
+        <v>-350</v>
+      </c>
+      <c r="AK10" s="51">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$22,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.0813299232736573</v>
+      </c>
+      <c r="AL10" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="13">
         <v>44528</v>
       </c>
@@ -4110,10 +4175,12 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="66"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="13">
         <v>44529</v>
       </c>
@@ -4149,10 +4216,12 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="66"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="5"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="13">
         <v>44530</v>
       </c>
@@ -4188,10 +4257,12 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="66"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="13">
         <v>44531</v>
       </c>
@@ -4227,10 +4298,12 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="66"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="13">
         <v>44532</v>
       </c>
@@ -4266,10 +4339,12 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="66"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="5"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="67"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="13">
         <v>44533</v>
       </c>
@@ -4305,10 +4380,12 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="66"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="5"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="67"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="13">
         <v>44534</v>
       </c>
@@ -4344,10 +4421,12 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="66"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="5"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="67"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="13">
         <v>44535</v>
       </c>
@@ -4383,10 +4462,12 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="66"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="5"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="67"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="13">
         <v>44536</v>
       </c>
@@ -4422,10 +4503,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="66"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="5"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="67"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="13">
         <v>44537</v>
       </c>
@@ -4461,10 +4544,12 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="66"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="5"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="67"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="13">
         <v>44538</v>
       </c>
@@ -4500,10 +4585,12 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="66"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="5"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="67"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="13">
         <v>44539</v>
       </c>
@@ -4539,10 +4626,12 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="66"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="67"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="13">
         <v>44540</v>
       </c>
@@ -4578,10 +4667,12 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="66"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="5"/>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="67"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="13">
         <v>44541</v>
       </c>
@@ -4617,10 +4708,12 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="66"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="5"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="67"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="13">
         <v>44542</v>
       </c>
@@ -4656,10 +4749,12 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="66"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="5"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="67"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="13">
         <v>44543</v>
       </c>
@@ -4695,10 +4790,12 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="66"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="5"/>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="67"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="13">
         <v>44544</v>
       </c>
@@ -4734,10 +4831,12 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="66"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="67"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="13">
         <v>44545</v>
       </c>
@@ -4773,10 +4872,12 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="66"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="5"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="67"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="13">
         <v>44546</v>
       </c>
@@ -4812,10 +4913,12 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="66"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="5"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="67"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="13">
         <v>44547</v>
       </c>
@@ -4851,10 +4954,12 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="66"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="5"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="67"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="13">
         <v>44548</v>
       </c>
@@ -4890,10 +4995,12 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="66"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="5"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="67"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" s="13">
         <v>44549</v>
       </c>
@@ -4929,10 +5036,12 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="66"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="5"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="67"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="13">
         <v>44550</v>
       </c>
@@ -4968,10 +5077,12 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="66"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="5"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="67"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="13">
         <v>44551</v>
       </c>
@@ -5007,10 +5118,12 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="66"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="67"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" s="13">
         <v>44552</v>
       </c>
@@ -5046,10 +5159,12 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="66"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="5"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="67"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="13">
         <v>44553</v>
       </c>
@@ -5085,10 +5200,12 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="66"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="5"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="67"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" s="13">
         <v>44554</v>
       </c>
@@ -5124,10 +5241,12 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="66"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="5"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="67"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="13">
         <v>44555</v>
       </c>
@@ -5163,10 +5282,12 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="66"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="67"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="13">
         <v>44556</v>
       </c>
@@ -5202,10 +5323,12 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="66"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="5"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="67"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" s="13">
         <v>44557</v>
       </c>
@@ -5241,10 +5364,12 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="66"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="5"/>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="67"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="5"/>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="13">
         <v>44558</v>
       </c>
@@ -5280,10 +5405,12 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="66"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="5"/>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="67"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="13">
         <v>44559</v>
       </c>
@@ -5319,10 +5446,12 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="66"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="5"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="67"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="13">
         <v>44560</v>
       </c>
@@ -5358,10 +5487,12 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="66"/>
-      <c r="AI43" s="51"/>
-      <c r="AJ43" s="5"/>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="67"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="13">
         <v>44561</v>
       </c>
@@ -5397,10 +5528,12 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="66"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="5"/>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="67"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="5"/>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="13">
         <v>44562</v>
       </c>
@@ -5436,10 +5569,12 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="66"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="5"/>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="67"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="5"/>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="13">
         <v>44563</v>
       </c>
@@ -5475,10 +5610,12 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="66"/>
-      <c r="AI46" s="51"/>
-      <c r="AJ46" s="5"/>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="67"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="13">
         <v>44564</v>
       </c>
@@ -5514,10 +5651,12 @@
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="66"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="5"/>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="67"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="13">
         <v>44565</v>
       </c>
@@ -5553,10 +5692,12 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="66"/>
-      <c r="AI48" s="51"/>
-      <c r="AJ48" s="5"/>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="67"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="13">
         <v>44566</v>
       </c>
@@ -5592,10 +5733,12 @@
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="66"/>
-      <c r="AI49" s="51"/>
-      <c r="AJ49" s="5"/>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="67"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="13">
         <v>44567</v>
       </c>
@@ -5631,10 +5774,12 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="66"/>
-      <c r="AI50" s="51"/>
-      <c r="AJ50" s="5"/>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="67"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="13">
         <v>44568</v>
       </c>
@@ -5670,10 +5815,12 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="66"/>
-      <c r="AI51" s="51"/>
-      <c r="AJ51" s="5"/>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="67"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="5"/>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="13">
         <v>44569</v>
       </c>
@@ -5709,10 +5856,12 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="66"/>
-      <c r="AI52" s="51"/>
-      <c r="AJ52" s="5"/>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="67"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="5"/>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="13">
         <v>44570</v>
       </c>
@@ -5748,10 +5897,12 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="66"/>
-      <c r="AI53" s="51"/>
-      <c r="AJ53" s="5"/>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="67"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" s="13">
         <v>44571</v>
       </c>
@@ -5787,10 +5938,12 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="66"/>
-      <c r="AI54" s="51"/>
-      <c r="AJ54" s="5"/>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="67"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="5"/>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" s="13">
         <v>44572</v>
       </c>
@@ -5826,10 +5979,12 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="66"/>
-      <c r="AI55" s="51"/>
-      <c r="AJ55" s="5"/>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="67"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="5"/>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" s="13">
         <v>44573</v>
       </c>
@@ -5865,10 +6020,12 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="66"/>
-      <c r="AI56" s="51"/>
-      <c r="AJ56" s="5"/>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="67"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="5"/>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" s="13">
         <v>44574</v>
       </c>
@@ -5904,10 +6061,12 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="66"/>
-      <c r="AI57" s="51"/>
-      <c r="AJ57" s="5"/>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="67"/>
+      <c r="AK57" s="51"/>
+      <c r="AL57" s="5"/>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="13">
         <v>44575</v>
       </c>
@@ -5943,10 +6102,12 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="66"/>
-      <c r="AI58" s="51"/>
-      <c r="AJ58" s="5"/>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="67"/>
+      <c r="AK58" s="51"/>
+      <c r="AL58" s="5"/>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" s="13">
         <v>44576</v>
       </c>
@@ -5982,10 +6143,12 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="66"/>
-      <c r="AI59" s="51"/>
-      <c r="AJ59" s="5"/>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="67"/>
+      <c r="AK59" s="51"/>
+      <c r="AL59" s="5"/>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" s="13">
         <v>44577</v>
       </c>
@@ -6021,10 +6184,12 @@
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="66"/>
-      <c r="AI60" s="51"/>
-      <c r="AJ60" s="5"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="67"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="5"/>
+    </row>
+    <row r="61" spans="1:38">
       <c r="A61" s="13">
         <v>44578</v>
       </c>
@@ -6060,10 +6225,12 @@
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="66"/>
-      <c r="AI61" s="51"/>
-      <c r="AJ61" s="5"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="67"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="5"/>
+    </row>
+    <row r="62" spans="1:38">
       <c r="A62" s="13">
         <v>44579</v>
       </c>
@@ -6099,10 +6266,12 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="66"/>
-      <c r="AI62" s="51"/>
-      <c r="AJ62" s="5"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="67"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="5"/>
+    </row>
+    <row r="63" spans="1:38">
       <c r="A63" s="13">
         <v>44580</v>
       </c>
@@ -6138,10 +6307,12 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="66"/>
-      <c r="AI63" s="51"/>
-      <c r="AJ63" s="5"/>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AH63" s="66"/>
+      <c r="AI63" s="67"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="5"/>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="13">
         <v>44581</v>
       </c>
@@ -6177,10 +6348,12 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="66"/>
-      <c r="AI64" s="51"/>
-      <c r="AJ64" s="5"/>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="67"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="5"/>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="13">
         <v>44582</v>
       </c>
@@ -6216,10 +6389,12 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="66"/>
-      <c r="AI65" s="51"/>
-      <c r="AJ65" s="5"/>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AH65" s="66"/>
+      <c r="AI65" s="67"/>
+      <c r="AK65" s="51"/>
+      <c r="AL65" s="5"/>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="13">
         <v>44583</v>
       </c>
@@ -6255,10 +6430,12 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="66"/>
-      <c r="AI66" s="51"/>
-      <c r="AJ66" s="5"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AH66" s="66"/>
+      <c r="AI66" s="67"/>
+      <c r="AK66" s="51"/>
+      <c r="AL66" s="5"/>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="13">
         <v>44584</v>
       </c>
@@ -6294,10 +6471,12 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="66"/>
-      <c r="AI67" s="51"/>
-      <c r="AJ67" s="5"/>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="67"/>
+      <c r="AK67" s="51"/>
+      <c r="AL67" s="5"/>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="13">
         <v>44585</v>
       </c>
@@ -6333,10 +6512,12 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="66"/>
-      <c r="AI68" s="51"/>
-      <c r="AJ68" s="5"/>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="67"/>
+      <c r="AK68" s="51"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="1:38">
       <c r="A69" s="13">
         <v>44586</v>
       </c>
@@ -6372,10 +6553,12 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="66"/>
-      <c r="AI69" s="51"/>
-      <c r="AJ69" s="5"/>
-    </row>
-    <row r="70" spans="1:36">
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="67"/>
+      <c r="AK69" s="51"/>
+      <c r="AL69" s="5"/>
+    </row>
+    <row r="70" spans="1:38">
       <c r="A70" s="13">
         <v>44587</v>
       </c>
@@ -6411,10 +6594,12 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="66"/>
-      <c r="AI70" s="51"/>
-      <c r="AJ70" s="5"/>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="67"/>
+      <c r="AK70" s="51"/>
+      <c r="AL70" s="5"/>
+    </row>
+    <row r="71" spans="1:38">
       <c r="A71" s="13">
         <v>44588</v>
       </c>
@@ -6450,10 +6635,12 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="66"/>
-      <c r="AI71" s="51"/>
-      <c r="AJ71" s="5"/>
-    </row>
-    <row r="72" spans="1:36">
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="67"/>
+      <c r="AK71" s="51"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="72" spans="1:38">
       <c r="A72" s="13">
         <v>44589</v>
       </c>
@@ -6489,10 +6676,12 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="66"/>
-      <c r="AI72" s="51"/>
-      <c r="AJ72" s="5"/>
-    </row>
-    <row r="73" spans="1:36">
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="67"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="5"/>
+    </row>
+    <row r="73" spans="1:38">
       <c r="A73" s="13">
         <v>44590</v>
       </c>
@@ -6528,10 +6717,12 @@
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="66"/>
-      <c r="AI73" s="51"/>
-      <c r="AJ73" s="5"/>
-    </row>
-    <row r="74" spans="1:36">
+      <c r="AH73" s="66"/>
+      <c r="AI73" s="67"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="5"/>
+    </row>
+    <row r="74" spans="1:38">
       <c r="A74" s="13">
         <v>44591</v>
       </c>
@@ -6567,10 +6758,12 @@
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="66"/>
-      <c r="AI74" s="51"/>
-      <c r="AJ74" s="5"/>
-    </row>
-    <row r="75" spans="1:36">
+      <c r="AH74" s="66"/>
+      <c r="AI74" s="67"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="5"/>
+    </row>
+    <row r="75" spans="1:38">
       <c r="A75" s="13">
         <v>44592</v>
       </c>
@@ -6606,10 +6799,12 @@
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="66"/>
-      <c r="AI75" s="51"/>
-      <c r="AJ75" s="5"/>
-    </row>
-    <row r="76" spans="1:36">
+      <c r="AH75" s="66"/>
+      <c r="AI75" s="67"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="5"/>
+    </row>
+    <row r="76" spans="1:38">
       <c r="A76" s="13">
         <v>44593</v>
       </c>
@@ -6645,10 +6840,12 @@
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="66"/>
-      <c r="AI76" s="51"/>
-      <c r="AJ76" s="5"/>
-    </row>
-    <row r="77" spans="1:36">
+      <c r="AH76" s="66"/>
+      <c r="AI76" s="67"/>
+      <c r="AK76" s="51"/>
+      <c r="AL76" s="5"/>
+    </row>
+    <row r="77" spans="1:38">
       <c r="A77" s="13">
         <v>44594</v>
       </c>
@@ -6684,10 +6881,12 @@
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="66"/>
-      <c r="AI77" s="51"/>
-      <c r="AJ77" s="5"/>
-    </row>
-    <row r="78" spans="1:36">
+      <c r="AH77" s="66"/>
+      <c r="AI77" s="67"/>
+      <c r="AK77" s="51"/>
+      <c r="AL77" s="5"/>
+    </row>
+    <row r="78" spans="1:38">
       <c r="A78" s="13">
         <v>44595</v>
       </c>
@@ -6723,10 +6922,12 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="66"/>
-      <c r="AI78" s="51"/>
-      <c r="AJ78" s="5"/>
-    </row>
-    <row r="79" spans="1:36">
+      <c r="AH78" s="66"/>
+      <c r="AI78" s="67"/>
+      <c r="AK78" s="51"/>
+      <c r="AL78" s="5"/>
+    </row>
+    <row r="79" spans="1:38">
       <c r="A79" s="13">
         <v>44596</v>
       </c>
@@ -6762,10 +6963,12 @@
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="66"/>
-      <c r="AI79" s="51"/>
-      <c r="AJ79" s="5"/>
-    </row>
-    <row r="80" spans="1:36">
+      <c r="AH79" s="66"/>
+      <c r="AI79" s="67"/>
+      <c r="AK79" s="51"/>
+      <c r="AL79" s="5"/>
+    </row>
+    <row r="80" spans="1:38">
       <c r="A80" s="13">
         <v>44597</v>
       </c>
@@ -6801,10 +7004,12 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="66"/>
-      <c r="AI80" s="51"/>
-      <c r="AJ80" s="5"/>
-    </row>
-    <row r="81" spans="1:36">
+      <c r="AH80" s="66"/>
+      <c r="AI80" s="67"/>
+      <c r="AK80" s="51"/>
+      <c r="AL80" s="5"/>
+    </row>
+    <row r="81" spans="1:38">
       <c r="A81" s="13">
         <v>44598</v>
       </c>
@@ -6840,10 +7045,12 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="66"/>
-      <c r="AI81" s="51"/>
-      <c r="AJ81" s="5"/>
-    </row>
-    <row r="82" spans="1:36">
+      <c r="AH81" s="66"/>
+      <c r="AI81" s="67"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="5"/>
+    </row>
+    <row r="82" spans="1:38">
       <c r="A82" s="13">
         <v>44599</v>
       </c>
@@ -6879,10 +7086,12 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="66"/>
-      <c r="AI82" s="51"/>
-      <c r="AJ82" s="5"/>
-    </row>
-    <row r="83" spans="1:36">
+      <c r="AH82" s="66"/>
+      <c r="AI82" s="67"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="5"/>
+    </row>
+    <row r="83" spans="1:38">
       <c r="A83" s="13">
         <v>44600</v>
       </c>
@@ -6918,10 +7127,12 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="66"/>
-      <c r="AI83" s="51"/>
-      <c r="AJ83" s="5"/>
-    </row>
-    <row r="84" spans="1:36">
+      <c r="AH83" s="66"/>
+      <c r="AI83" s="67"/>
+      <c r="AK83" s="51"/>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="1:38">
       <c r="A84" s="13">
         <v>44601</v>
       </c>
@@ -6957,10 +7168,12 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="66"/>
-      <c r="AI84" s="51"/>
-      <c r="AJ84" s="5"/>
-    </row>
-    <row r="85" spans="1:36">
+      <c r="AH84" s="66"/>
+      <c r="AI84" s="67"/>
+      <c r="AK84" s="51"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="1:38">
       <c r="A85" s="13">
         <v>44602</v>
       </c>
@@ -6996,10 +7209,12 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="66"/>
-      <c r="AI85" s="51"/>
-      <c r="AJ85" s="5"/>
-    </row>
-    <row r="86" spans="1:36">
+      <c r="AH85" s="66"/>
+      <c r="AI85" s="67"/>
+      <c r="AK85" s="51"/>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="1:38">
       <c r="A86" s="13">
         <v>44603</v>
       </c>
@@ -7035,10 +7250,12 @@
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="66"/>
-      <c r="AI86" s="51"/>
-      <c r="AJ86" s="5"/>
-    </row>
-    <row r="87" spans="1:36">
+      <c r="AH86" s="66"/>
+      <c r="AI86" s="67"/>
+      <c r="AK86" s="51"/>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="1:38">
       <c r="A87" s="13">
         <v>44604</v>
       </c>
@@ -7074,10 +7291,12 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="66"/>
-      <c r="AI87" s="51"/>
-      <c r="AJ87" s="5"/>
-    </row>
-    <row r="88" spans="1:36">
+      <c r="AH87" s="66"/>
+      <c r="AI87" s="67"/>
+      <c r="AK87" s="51"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="1:38">
       <c r="A88" s="13">
         <v>44605</v>
       </c>
@@ -7113,10 +7332,12 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="66"/>
-      <c r="AI88" s="51"/>
-      <c r="AJ88" s="5"/>
-    </row>
-    <row r="89" spans="1:36">
+      <c r="AH88" s="66"/>
+      <c r="AI88" s="67"/>
+      <c r="AK88" s="51"/>
+      <c r="AL88" s="5"/>
+    </row>
+    <row r="89" spans="1:38">
       <c r="A89" s="13">
         <v>44606</v>
       </c>
@@ -7152,10 +7373,12 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="66"/>
-      <c r="AI89" s="51"/>
-      <c r="AJ89" s="5"/>
-    </row>
-    <row r="90" spans="1:36">
+      <c r="AH89" s="66"/>
+      <c r="AI89" s="67"/>
+      <c r="AK89" s="51"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="1:38">
       <c r="A90" s="13">
         <v>44607</v>
       </c>
@@ -7191,10 +7414,12 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="66"/>
-      <c r="AI90" s="51"/>
-      <c r="AJ90" s="5"/>
-    </row>
-    <row r="91" spans="1:36">
+      <c r="AH90" s="66"/>
+      <c r="AI90" s="67"/>
+      <c r="AK90" s="51"/>
+      <c r="AL90" s="5"/>
+    </row>
+    <row r="91" spans="1:38">
       <c r="A91" s="13">
         <v>44608</v>
       </c>
@@ -7230,10 +7455,12 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="66"/>
-      <c r="AI91" s="51"/>
-      <c r="AJ91" s="5"/>
-    </row>
-    <row r="92" spans="1:36">
+      <c r="AH91" s="66"/>
+      <c r="AI91" s="67"/>
+      <c r="AK91" s="51"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="1:38">
       <c r="A92" s="13">
         <v>44609</v>
       </c>
@@ -7269,10 +7496,12 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="66"/>
-      <c r="AI92" s="51"/>
-      <c r="AJ92" s="5"/>
-    </row>
-    <row r="93" spans="1:36">
+      <c r="AH92" s="66"/>
+      <c r="AI92" s="67"/>
+      <c r="AK92" s="51"/>
+      <c r="AL92" s="5"/>
+    </row>
+    <row r="93" spans="1:38">
       <c r="A93" s="13">
         <v>44610</v>
       </c>
@@ -7308,10 +7537,12 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="66"/>
-      <c r="AI93" s="51"/>
-      <c r="AJ93" s="5"/>
-    </row>
-    <row r="94" spans="1:36">
+      <c r="AH93" s="66"/>
+      <c r="AI93" s="67"/>
+      <c r="AK93" s="51"/>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="1:38">
       <c r="A94" s="13">
         <v>44611</v>
       </c>
@@ -7347,10 +7578,12 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="66"/>
-      <c r="AI94" s="51"/>
-      <c r="AJ94" s="5"/>
-    </row>
-    <row r="95" spans="1:36">
+      <c r="AH94" s="66"/>
+      <c r="AI94" s="67"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="1:38">
       <c r="A95" s="13">
         <v>44612</v>
       </c>
@@ -7386,10 +7619,12 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="66"/>
-      <c r="AI95" s="51"/>
-      <c r="AJ95" s="5"/>
-    </row>
-    <row r="96" spans="1:36">
+      <c r="AH95" s="66"/>
+      <c r="AI95" s="67"/>
+      <c r="AK95" s="51"/>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="1:38">
       <c r="A96" s="13">
         <v>44613</v>
       </c>
@@ -7425,10 +7660,12 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="66"/>
-      <c r="AI96" s="51"/>
-      <c r="AJ96" s="5"/>
-    </row>
-    <row r="97" spans="1:36">
+      <c r="AH96" s="66"/>
+      <c r="AI96" s="67"/>
+      <c r="AK96" s="51"/>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="1:38">
       <c r="A97" s="13">
         <v>44614</v>
       </c>
@@ -7464,10 +7701,12 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="66"/>
-      <c r="AI97" s="51"/>
-      <c r="AJ97" s="5"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="AH97" s="66"/>
+      <c r="AI97" s="67"/>
+      <c r="AK97" s="51"/>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="1:38">
       <c r="A98" s="13">
         <v>44615</v>
       </c>
@@ -7503,10 +7742,12 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="66"/>
-      <c r="AI98" s="51"/>
-      <c r="AJ98" s="5"/>
-    </row>
-    <row r="99" spans="1:36">
+      <c r="AH98" s="66"/>
+      <c r="AI98" s="67"/>
+      <c r="AK98" s="51"/>
+      <c r="AL98" s="5"/>
+    </row>
+    <row r="99" spans="1:38">
       <c r="A99" s="13">
         <v>44616</v>
       </c>
@@ -7542,10 +7783,12 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="66"/>
-      <c r="AI99" s="51"/>
-      <c r="AJ99" s="5"/>
-    </row>
-    <row r="100" spans="1:36">
+      <c r="AH99" s="66"/>
+      <c r="AI99" s="67"/>
+      <c r="AK99" s="51"/>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="1:38">
       <c r="A100" s="13">
         <v>44617</v>
       </c>
@@ -7581,10 +7824,12 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="66"/>
-      <c r="AI100" s="51"/>
-      <c r="AJ100" s="5"/>
-    </row>
-    <row r="101" spans="1:36">
+      <c r="AH100" s="66"/>
+      <c r="AI100" s="67"/>
+      <c r="AK100" s="51"/>
+      <c r="AL100" s="5"/>
+    </row>
+    <row r="101" spans="1:38">
       <c r="A101" s="13">
         <v>44618</v>
       </c>
@@ -7620,10 +7865,12 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="66"/>
-      <c r="AI101" s="51"/>
-      <c r="AJ101" s="5"/>
-    </row>
-    <row r="102" spans="1:36">
+      <c r="AH101" s="66"/>
+      <c r="AI101" s="67"/>
+      <c r="AK101" s="51"/>
+      <c r="AL101" s="5"/>
+    </row>
+    <row r="102" spans="1:38">
       <c r="A102" s="13">
         <v>44619</v>
       </c>
@@ -7659,10 +7906,12 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="66"/>
-      <c r="AI102" s="51"/>
-      <c r="AJ102" s="5"/>
-    </row>
-    <row r="103" spans="1:36">
+      <c r="AH102" s="66"/>
+      <c r="AI102" s="67"/>
+      <c r="AK102" s="51"/>
+      <c r="AL102" s="5"/>
+    </row>
+    <row r="103" spans="1:38">
       <c r="A103" s="13">
         <v>44620</v>
       </c>
@@ -7698,10 +7947,12 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="66"/>
-      <c r="AI103" s="51"/>
-      <c r="AJ103" s="5"/>
-    </row>
-    <row r="104" spans="1:36">
+      <c r="AH103" s="66"/>
+      <c r="AI103" s="67"/>
+      <c r="AK103" s="51"/>
+      <c r="AL103" s="5"/>
+    </row>
+    <row r="104" spans="1:38">
       <c r="A104" s="13">
         <v>44621</v>
       </c>
@@ -7737,10 +7988,12 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="66"/>
-      <c r="AI104" s="51"/>
-      <c r="AJ104" s="5"/>
-    </row>
-    <row r="105" spans="1:36">
+      <c r="AH104" s="66"/>
+      <c r="AI104" s="67"/>
+      <c r="AK104" s="51"/>
+      <c r="AL104" s="5"/>
+    </row>
+    <row r="105" spans="1:38">
       <c r="A105" s="13">
         <v>44622</v>
       </c>
@@ -7776,10 +8029,12 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="66"/>
-      <c r="AI105" s="51"/>
-      <c r="AJ105" s="5"/>
-    </row>
-    <row r="106" spans="1:36">
+      <c r="AH105" s="66"/>
+      <c r="AI105" s="67"/>
+      <c r="AK105" s="51"/>
+      <c r="AL105" s="5"/>
+    </row>
+    <row r="106" spans="1:38">
       <c r="A106" s="13">
         <v>44623</v>
       </c>
@@ -7815,10 +8070,12 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="66"/>
-      <c r="AI106" s="51"/>
-      <c r="AJ106" s="5"/>
-    </row>
-    <row r="107" spans="1:36">
+      <c r="AH106" s="66"/>
+      <c r="AI106" s="67"/>
+      <c r="AK106" s="51"/>
+      <c r="AL106" s="5"/>
+    </row>
+    <row r="107" spans="1:38">
       <c r="A107" s="13">
         <v>44624</v>
       </c>
@@ -7854,10 +8111,12 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="66"/>
-      <c r="AI107" s="51"/>
-      <c r="AJ107" s="5"/>
-    </row>
-    <row r="108" spans="1:36">
+      <c r="AH107" s="66"/>
+      <c r="AI107" s="67"/>
+      <c r="AK107" s="51"/>
+      <c r="AL107" s="5"/>
+    </row>
+    <row r="108" spans="1:38">
       <c r="A108" s="13">
         <v>44625</v>
       </c>
@@ -7893,10 +8152,12 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="66"/>
-      <c r="AI108" s="51"/>
-      <c r="AJ108" s="5"/>
-    </row>
-    <row r="109" spans="1:36">
+      <c r="AH108" s="66"/>
+      <c r="AI108" s="67"/>
+      <c r="AK108" s="51"/>
+      <c r="AL108" s="5"/>
+    </row>
+    <row r="109" spans="1:38">
       <c r="A109" s="13">
         <v>44626</v>
       </c>
@@ -7932,10 +8193,12 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="66"/>
-      <c r="AI109" s="51"/>
-      <c r="AJ109" s="5"/>
-    </row>
-    <row r="110" spans="1:36">
+      <c r="AH109" s="66"/>
+      <c r="AI109" s="67"/>
+      <c r="AK109" s="51"/>
+      <c r="AL109" s="5"/>
+    </row>
+    <row r="110" spans="1:38">
       <c r="A110" s="13">
         <v>44627</v>
       </c>
@@ -7971,10 +8234,12 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="66"/>
-      <c r="AI110" s="51"/>
-      <c r="AJ110" s="5"/>
-    </row>
-    <row r="111" spans="1:36">
+      <c r="AH110" s="66"/>
+      <c r="AI110" s="67"/>
+      <c r="AK110" s="51"/>
+      <c r="AL110" s="5"/>
+    </row>
+    <row r="111" spans="1:38">
       <c r="A111" s="13">
         <v>44628</v>
       </c>
@@ -8010,10 +8275,12 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="66"/>
-      <c r="AI111" s="51"/>
-      <c r="AJ111" s="5"/>
-    </row>
-    <row r="112" spans="1:36">
+      <c r="AH111" s="66"/>
+      <c r="AI111" s="67"/>
+      <c r="AK111" s="51"/>
+      <c r="AL111" s="5"/>
+    </row>
+    <row r="112" spans="1:38">
       <c r="A112" s="13">
         <v>44629</v>
       </c>
@@ -8049,10 +8316,12 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="66"/>
-      <c r="AI112" s="51"/>
-      <c r="AJ112" s="5"/>
-    </row>
-    <row r="113" spans="1:36">
+      <c r="AH112" s="66"/>
+      <c r="AI112" s="67"/>
+      <c r="AK112" s="51"/>
+      <c r="AL112" s="5"/>
+    </row>
+    <row r="113" spans="1:38">
       <c r="A113" s="13">
         <v>44630</v>
       </c>
@@ -8088,10 +8357,12 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="66"/>
-      <c r="AI113" s="51"/>
-      <c r="AJ113" s="5"/>
-    </row>
-    <row r="114" spans="1:36">
+      <c r="AH113" s="66"/>
+      <c r="AI113" s="67"/>
+      <c r="AK113" s="51"/>
+      <c r="AL113" s="5"/>
+    </row>
+    <row r="114" spans="1:38">
       <c r="A114" s="13">
         <v>44631</v>
       </c>
@@ -8127,10 +8398,12 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="66"/>
-      <c r="AI114" s="51"/>
-      <c r="AJ114" s="5"/>
-    </row>
-    <row r="115" spans="1:36">
+      <c r="AH114" s="66"/>
+      <c r="AI114" s="67"/>
+      <c r="AK114" s="51"/>
+      <c r="AL114" s="5"/>
+    </row>
+    <row r="115" spans="1:38">
       <c r="A115" s="13">
         <v>44632</v>
       </c>
@@ -8166,10 +8439,12 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="66"/>
-      <c r="AI115" s="51"/>
-      <c r="AJ115" s="5"/>
-    </row>
-    <row r="116" spans="1:36">
+      <c r="AH115" s="66"/>
+      <c r="AI115" s="67"/>
+      <c r="AK115" s="51"/>
+      <c r="AL115" s="5"/>
+    </row>
+    <row r="116" spans="1:38">
       <c r="A116" s="13">
         <v>44633</v>
       </c>
@@ -8205,10 +8480,12 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="66"/>
-      <c r="AI116" s="51"/>
-      <c r="AJ116" s="5"/>
-    </row>
-    <row r="117" spans="1:36">
+      <c r="AH116" s="66"/>
+      <c r="AI116" s="67"/>
+      <c r="AK116" s="51"/>
+      <c r="AL116" s="5"/>
+    </row>
+    <row r="117" spans="1:38">
       <c r="A117" s="13">
         <v>44634</v>
       </c>
@@ -8244,10 +8521,12 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="66"/>
-      <c r="AI117" s="51"/>
-      <c r="AJ117" s="5"/>
-    </row>
-    <row r="118" spans="1:36">
+      <c r="AH117" s="66"/>
+      <c r="AI117" s="67"/>
+      <c r="AK117" s="51"/>
+      <c r="AL117" s="5"/>
+    </row>
+    <row r="118" spans="1:38">
       <c r="A118" s="13">
         <v>44635</v>
       </c>
@@ -8283,10 +8562,12 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AG118" s="66"/>
-      <c r="AI118" s="51"/>
-      <c r="AJ118" s="5"/>
-    </row>
-    <row r="119" spans="1:36">
+      <c r="AH118" s="66"/>
+      <c r="AI118" s="67"/>
+      <c r="AK118" s="51"/>
+      <c r="AL118" s="5"/>
+    </row>
+    <row r="119" spans="1:38">
       <c r="A119" s="13">
         <v>44636</v>
       </c>
@@ -8322,10 +8603,12 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AG119" s="66"/>
-      <c r="AI119" s="51"/>
-      <c r="AJ119" s="5"/>
-    </row>
-    <row r="120" spans="1:36">
+      <c r="AH119" s="66"/>
+      <c r="AI119" s="67"/>
+      <c r="AK119" s="51"/>
+      <c r="AL119" s="5"/>
+    </row>
+    <row r="120" spans="1:38">
       <c r="A120" s="13">
         <v>44637</v>
       </c>
@@ -8361,10 +8644,12 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AG120" s="66"/>
-      <c r="AI120" s="51"/>
-      <c r="AJ120" s="5"/>
-    </row>
-    <row r="121" spans="1:36">
+      <c r="AH120" s="66"/>
+      <c r="AI120" s="67"/>
+      <c r="AK120" s="51"/>
+      <c r="AL120" s="5"/>
+    </row>
+    <row r="121" spans="1:38">
       <c r="A121" s="13">
         <v>44638</v>
       </c>
@@ -8400,10 +8685,12 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AG121" s="66"/>
-      <c r="AI121" s="51"/>
-      <c r="AJ121" s="5"/>
-    </row>
-    <row r="122" spans="1:36">
+      <c r="AH121" s="66"/>
+      <c r="AI121" s="67"/>
+      <c r="AK121" s="51"/>
+      <c r="AL121" s="5"/>
+    </row>
+    <row r="122" spans="1:38">
       <c r="A122" s="13">
         <v>44639</v>
       </c>
@@ -8439,10 +8726,12 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
       <c r="AG122" s="66"/>
-      <c r="AI122" s="51"/>
-      <c r="AJ122" s="5"/>
-    </row>
-    <row r="123" spans="1:36">
+      <c r="AH122" s="66"/>
+      <c r="AI122" s="67"/>
+      <c r="AK122" s="51"/>
+      <c r="AL122" s="5"/>
+    </row>
+    <row r="123" spans="1:38">
       <c r="A123" s="13">
         <v>44640</v>
       </c>
@@ -8478,10 +8767,12 @@
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
       <c r="AG123" s="66"/>
-      <c r="AI123" s="51"/>
-      <c r="AJ123" s="5"/>
-    </row>
-    <row r="124" spans="1:36">
+      <c r="AH123" s="66"/>
+      <c r="AI123" s="67"/>
+      <c r="AK123" s="51"/>
+      <c r="AL123" s="5"/>
+    </row>
+    <row r="124" spans="1:38">
       <c r="A124" s="13">
         <v>44641</v>
       </c>
@@ -8517,10 +8808,12 @@
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
       <c r="AG124" s="66"/>
-      <c r="AI124" s="51"/>
-      <c r="AJ124" s="5"/>
-    </row>
-    <row r="125" spans="1:36">
+      <c r="AH124" s="66"/>
+      <c r="AI124" s="67"/>
+      <c r="AK124" s="51"/>
+      <c r="AL124" s="5"/>
+    </row>
+    <row r="125" spans="1:38">
       <c r="A125" s="13">
         <v>44642</v>
       </c>
@@ -8556,10 +8849,12 @@
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
       <c r="AG125" s="66"/>
-      <c r="AI125" s="51"/>
-      <c r="AJ125" s="5"/>
-    </row>
-    <row r="126" spans="1:36">
+      <c r="AH125" s="66"/>
+      <c r="AI125" s="67"/>
+      <c r="AK125" s="51"/>
+      <c r="AL125" s="5"/>
+    </row>
+    <row r="126" spans="1:38">
       <c r="A126" s="13">
         <v>44643</v>
       </c>
@@ -8595,10 +8890,12 @@
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
       <c r="AG126" s="66"/>
-      <c r="AI126" s="51"/>
-      <c r="AJ126" s="5"/>
-    </row>
-    <row r="127" spans="1:36">
+      <c r="AH126" s="66"/>
+      <c r="AI126" s="67"/>
+      <c r="AK126" s="51"/>
+      <c r="AL126" s="5"/>
+    </row>
+    <row r="127" spans="1:38">
       <c r="A127" s="13">
         <v>44644</v>
       </c>
@@ -8634,10 +8931,12 @@
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
       <c r="AG127" s="66"/>
-      <c r="AI127" s="51"/>
-      <c r="AJ127" s="5"/>
-    </row>
-    <row r="128" spans="1:36">
+      <c r="AH127" s="66"/>
+      <c r="AI127" s="67"/>
+      <c r="AK127" s="51"/>
+      <c r="AL127" s="5"/>
+    </row>
+    <row r="128" spans="1:38">
       <c r="A128" s="13">
         <v>44645</v>
       </c>
@@ -8673,10 +8972,12 @@
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
       <c r="AG128" s="66"/>
-      <c r="AI128" s="51"/>
-      <c r="AJ128" s="5"/>
-    </row>
-    <row r="129" spans="1:36">
+      <c r="AH128" s="66"/>
+      <c r="AI128" s="67"/>
+      <c r="AK128" s="51"/>
+      <c r="AL128" s="5"/>
+    </row>
+    <row r="129" spans="1:38">
       <c r="A129" s="13">
         <v>44646</v>
       </c>
@@ -8712,10 +9013,12 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
       <c r="AG129" s="66"/>
-      <c r="AI129" s="51"/>
-      <c r="AJ129" s="5"/>
-    </row>
-    <row r="130" spans="1:36">
+      <c r="AH129" s="66"/>
+      <c r="AI129" s="67"/>
+      <c r="AK129" s="51"/>
+      <c r="AL129" s="5"/>
+    </row>
+    <row r="130" spans="1:38">
       <c r="A130" s="13">
         <v>44647</v>
       </c>
@@ -8751,10 +9054,12 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
       <c r="AG130" s="66"/>
-      <c r="AI130" s="51"/>
-      <c r="AJ130" s="5"/>
-    </row>
-    <row r="131" spans="1:36">
+      <c r="AH130" s="66"/>
+      <c r="AI130" s="67"/>
+      <c r="AK130" s="51"/>
+      <c r="AL130" s="5"/>
+    </row>
+    <row r="131" spans="1:38">
       <c r="A131" s="13">
         <v>44648</v>
       </c>
@@ -8790,10 +9095,12 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
       <c r="AG131" s="66"/>
-      <c r="AI131" s="51"/>
-      <c r="AJ131" s="5"/>
-    </row>
-    <row r="132" spans="1:36">
+      <c r="AH131" s="66"/>
+      <c r="AI131" s="67"/>
+      <c r="AK131" s="51"/>
+      <c r="AL131" s="5"/>
+    </row>
+    <row r="132" spans="1:38">
       <c r="A132" s="13">
         <v>44649</v>
       </c>
@@ -8829,10 +9136,12 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
       <c r="AG132" s="66"/>
-      <c r="AI132" s="51"/>
-      <c r="AJ132" s="5"/>
-    </row>
-    <row r="133" spans="1:34">
+      <c r="AH132" s="66"/>
+      <c r="AI132" s="67"/>
+      <c r="AK132" s="51"/>
+      <c r="AL132" s="5"/>
+    </row>
+    <row r="133" spans="1:36">
       <c r="A133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -8846,7 +9155,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="Y133" s="3"/>
-      <c r="AH133" s="67"/>
+      <c r="AJ133" s="69"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="3"/>
@@ -14399,7 +14708,7 @@
       <c r="Y503" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -14431,6 +14740,8 @@
     <mergeCell ref="AH1:AH5"/>
     <mergeCell ref="AI1:AI5"/>
     <mergeCell ref="AJ1:AJ5"/>
+    <mergeCell ref="AK1:AK5"/>
+    <mergeCell ref="AL1:AL5"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="L1:Q2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
@@ -3331,7 +3331,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业-JH_00029.xlsx
@@ -246,14 +246,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -303,15 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,62 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -395,7 +333,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +349,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +418,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,15 +438,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,13 +515,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,25 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,73 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,21 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -764,11 +749,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,25 +765,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -821,16 +795,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -840,148 +840,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1007,19 +1007,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1031,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1043,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +1127,7 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,16 +1139,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,10 +1160,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,16 +1175,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3550,7 +3550,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH1:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3909,7 +3909,7 @@
         <v>14.25</v>
       </c>
       <c r="J6" s="20">
-        <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J11" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="21" t="s">
@@ -3925,7 +3925,7 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="40" t="str">
-        <f>IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U11" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="41"/>
@@ -3934,14 +3934,14 @@
         <v>47</v>
       </c>
       <c r="Y6" s="47">
-        <f>$I6/$I$6</f>
+        <f t="shared" ref="Y6:Y11" si="2">$I6/$I$6</f>
         <v>1</v>
       </c>
       <c r="Z6" s="48"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="49"/>
       <c r="AC6" s="10">
-        <f>D6-E6</f>
+        <f t="shared" ref="AC6:AC11" si="3">D6-E6</f>
         <v>3.2</v>
       </c>
       <c r="AD6" s="26"/>
@@ -3995,7 +3995,7 @@
         <v>14.25</v>
       </c>
       <c r="J7" s="20">
-        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7" s="23">
@@ -4012,7 +4012,7 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="40" t="str">
-        <f>IF(B7&lt;G7,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V7" s="41"/>
@@ -4021,14 +4021,14 @@
         <v>47</v>
       </c>
       <c r="Y7" s="47">
-        <f>$I7/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48"/>
       <c r="AB7" s="49"/>
       <c r="AC7" s="10">
-        <f>D7-E7</f>
+        <f t="shared" si="3"/>
         <v>2.69</v>
       </c>
       <c r="AD7" s="26"/>
@@ -4083,7 +4083,7 @@
         <v>14.25</v>
       </c>
       <c r="J8" s="20">
-        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="23">
@@ -4102,7 +4102,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="40" t="str">
-        <f>IF(B8&lt;G8,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V8" s="43"/>
@@ -4111,14 +4111,14 @@
         <v>47</v>
       </c>
       <c r="Y8" s="47">
-        <f>$I8/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="10">
-        <f>D8-E8</f>
+        <f t="shared" si="3"/>
         <v>2.22</v>
       </c>
       <c r="AD8" s="5"/>
@@ -4173,7 +4173,7 @@
         <v>17.09</v>
       </c>
       <c r="J9" s="20">
-        <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K9" s="23">
@@ -4190,7 +4190,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="40" t="str">
-        <f>IF(B9&lt;G9,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V9" s="44"/>
@@ -4199,14 +4199,14 @@
         <v>47</v>
       </c>
       <c r="Y9" s="47">
-        <f>$I9/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.19929824561404</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="10">
-        <f>D9-E9</f>
+        <f t="shared" si="3"/>
         <v>2.31</v>
       </c>
       <c r="AD9" s="5"/>
@@ -4261,7 +4261,7 @@
         <v>16.89</v>
       </c>
       <c r="J10" s="25">
-        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K10" s="23">
@@ -4284,7 +4284,7 @@
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="40" t="str">
-        <f>IF(B10&lt;G10,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V10" s="24"/>
@@ -4293,7 +4293,7 @@
         <v>47</v>
       </c>
       <c r="Y10" s="47">
-        <f>$I10/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.18526315789474</v>
       </c>
       <c r="Z10" s="50">
@@ -4303,7 +4303,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="10">
-        <f>D10-E10</f>
+        <f t="shared" si="3"/>
         <v>1.95</v>
       </c>
       <c r="AD10" s="5"/>
@@ -4358,7 +4358,7 @@
         <v>16.46</v>
       </c>
       <c r="J11" s="20">
-        <f>IF(B11&gt;(D11-(D11-E11)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11" s="23">
@@ -4378,7 +4378,7 @@
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
       <c r="U11" s="40" t="str">
-        <f>IF(B11&lt;G11,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V11" s="24"/>
@@ -4387,7 +4387,7 @@
         <v>47</v>
       </c>
       <c r="Y11" s="47">
-        <f>$I11/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.15508771929825</v>
       </c>
       <c r="Z11" s="50">
@@ -4397,7 +4397,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="10">
-        <f>D11-E11</f>
+        <f t="shared" si="3"/>
         <v>1.17</v>
       </c>
       <c r="AD11" s="5"/>
